--- a/zakupy.xlsx
+++ b/zakupy.xlsx
@@ -1,29 +1,217 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\piate\Documents\GitHub\Universal_charger\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{804F9CCE-FED7-42A3-9362-C4609B5CBF96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="38295" yWindow="0" windowWidth="19395" windowHeight="16305" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
+    <sheet name="wszystko" sheetId="3" r:id="rId1"/>
+    <sheet name="balanser" sheetId="1" r:id="rId2"/>
+    <sheet name="pomiar rw" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="52">
+  <si>
+    <t>symbol</t>
+  </si>
+  <si>
+    <t>ilość</t>
+  </si>
+  <si>
+    <t>kod TME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">orientacyjny koszt </t>
+  </si>
+  <si>
+    <t>uwagi</t>
+  </si>
+  <si>
+    <t>element</t>
+  </si>
+  <si>
+    <t>lp.</t>
+  </si>
+  <si>
+    <t>wzmacniacz podwojny</t>
+  </si>
+  <si>
+    <t>LM2904BIDR</t>
+  </si>
+  <si>
+    <t>uin od gnd do vcc-2</t>
+  </si>
+  <si>
+    <t>BC846BW-AQ</t>
+  </si>
+  <si>
+    <t>tranzystor NPN</t>
+  </si>
+  <si>
+    <t>BC846BW-AQ-DIO</t>
+  </si>
+  <si>
+    <t>Ic 1mA P 200mW Uce 60V</t>
+  </si>
+  <si>
+    <t>obudowa</t>
+  </si>
+  <si>
+    <t>SOT323</t>
+  </si>
+  <si>
+    <t>SO8</t>
+  </si>
+  <si>
+    <t>tranzystor PNP</t>
+  </si>
+  <si>
+    <t>MJD45H11T4</t>
+  </si>
+  <si>
+    <t>Ic 8A P 20W Uce 80V</t>
+  </si>
+  <si>
+    <t>DPAK</t>
+  </si>
+  <si>
+    <t>datasheat</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/Document/01cfe8208ea6b69693a43dc0a9a9a34c/MJD44H11_MJD45H11.pdf</t>
+  </si>
+  <si>
+    <t>https://www.ti.com/lit/ds/symlink/lm2904b.pdf?ts=1713431469622&amp;ref_url=https%253A%252F%252Fwww.ti.com%252Fproduct%252FLM2904B</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/Document/98caed580fed74765f231500ab2e8bf1/bc846w.pdf</t>
+  </si>
+  <si>
+    <t>RC0805FR-072K</t>
+  </si>
+  <si>
+    <t>RC0805FR-072KL</t>
+  </si>
+  <si>
+    <t>R 2k</t>
+  </si>
+  <si>
+    <t>0805S8J0122T5E</t>
+  </si>
+  <si>
+    <t>R 1.2k</t>
+  </si>
+  <si>
+    <t>SMD0805-1K2</t>
+  </si>
+  <si>
+    <t>RC0805JR-0710KL</t>
+  </si>
+  <si>
+    <t>R 10k</t>
+  </si>
+  <si>
+    <t>RC0805JR-0710K</t>
+  </si>
+  <si>
+    <t>R 5.1k</t>
+  </si>
+  <si>
+    <t>0805S8J0512T5E</t>
+  </si>
+  <si>
+    <t>SMD0805-5K1</t>
+  </si>
+  <si>
+    <t>0805S8J0511T5E</t>
+  </si>
+  <si>
+    <t>SMD0805-510R</t>
+  </si>
+  <si>
+    <t>R 510</t>
+  </si>
+  <si>
+    <t>0805S8J0391T5E</t>
+  </si>
+  <si>
+    <t>R 390</t>
+  </si>
+  <si>
+    <t>SMD0805-390R</t>
+  </si>
+  <si>
+    <t>RC0805FR-07100RL</t>
+  </si>
+  <si>
+    <t>R 100</t>
+  </si>
+  <si>
+    <t>RC0805FR-07100R</t>
+  </si>
+  <si>
+    <t>C 100n</t>
+  </si>
+  <si>
+    <t>odsprzęgający</t>
+  </si>
+  <si>
+    <t>CC0805KPX7R9BB104</t>
+  </si>
+  <si>
+    <t>CC0805KPX7R9104</t>
+  </si>
+  <si>
+    <t>ilość na 4 ladowarki</t>
+  </si>
+  <si>
+    <t>ilośćna 1 ladowarke</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -46,14 +234,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Hiperłącze" xfId="1" builtinId="8"/>
+    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +522,704 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E69E0D57-CE84-43DA-8AEA-A79560A9010F}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="3.07421875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.53515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.4609375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.765625" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="17.61328125" customWidth="1"/>
+    <col min="7" max="7" width="6.53515625" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="22.15234375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="123.53515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2">
+        <v>6</v>
+      </c>
+      <c r="E2">
+        <f>D2*4</f>
+        <v>24</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2">
+        <v>9</v>
+      </c>
+      <c r="H2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <v>6</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E12" si="0">D3*4</f>
+        <v>24</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3">
+        <v>3</v>
+      </c>
+      <c r="H3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4">
+        <v>6</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4">
+        <v>12</v>
+      </c>
+      <c r="H4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5">
+        <v>12</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="F5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="2">
+        <v>5.6</v>
+      </c>
+      <c r="I5">
+        <v>805</v>
+      </c>
+      <c r="J5" s="1"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6">
+        <v>12</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="F6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="2">
+        <v>6.03</v>
+      </c>
+      <c r="I6">
+        <v>805</v>
+      </c>
+      <c r="J6" s="1"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7">
+        <v>6</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="F7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" s="2">
+        <v>5.64</v>
+      </c>
+      <c r="I7">
+        <v>805</v>
+      </c>
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8">
+        <v>6</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="F8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" s="2">
+        <v>6</v>
+      </c>
+      <c r="I8">
+        <v>805</v>
+      </c>
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9">
+        <v>4</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="F9" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="2">
+        <v>6.56</v>
+      </c>
+      <c r="I9">
+        <v>805</v>
+      </c>
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F10" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" s="2">
+        <v>5.75</v>
+      </c>
+      <c r="I10">
+        <v>805</v>
+      </c>
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G11" s="2">
+        <v>5.16</v>
+      </c>
+      <c r="I11">
+        <v>805</v>
+      </c>
+      <c r="J11" s="1"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12">
+        <v>6</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="F12" t="s">
+        <v>49</v>
+      </c>
+      <c r="G12" s="2">
+        <v>5.29</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12">
+        <v>805</v>
+      </c>
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="J13" s="1"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="J14" s="1"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="J15" s="1"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="J16" s="1"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="J17" s="1"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="J18" s="1"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="J19" s="1"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="J20" s="1"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="J21" s="1"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="J22" s="1"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="J23" s="1"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="J24" s="1"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="J25" s="1"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="J26" s="1"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="J27" s="1"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="J28" s="1"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="J29" s="1"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="J30" s="1"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="J31" s="1"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="J2" r:id="rId1" xr:uid="{D014BAEC-D4B4-4C4E-A33A-2D67D4773358}"/>
+    <hyperlink ref="J3" r:id="rId2" xr:uid="{923BCAD9-6E0E-4712-BCFB-88261CE6F4CB}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3D75E27-129B-4A64-B9AD-E5EFC0DF26BA}">
+  <dimension ref="A1:G31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A22">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A23">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A24">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A26">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A27">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A28">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A29">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A30">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A31">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/zakupy.xlsx
+++ b/zakupy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\piate\Documents\GitHub\Universal_charger\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{804F9CCE-FED7-42A3-9362-C4609B5CBF96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B88B221-E0CF-4F69-800D-97A08F631B81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38295" yWindow="0" windowWidth="19395" windowHeight="16305" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13920" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="wszystko" sheetId="3" r:id="rId1"/>
@@ -38,14 +38,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="71">
   <si>
     <t>symbol</t>
   </si>
   <si>
-    <t>ilość</t>
-  </si>
-  <si>
     <t>kod TME</t>
   </si>
   <si>
@@ -194,13 +191,76 @@
   </si>
   <si>
     <t>ilośćna 1 ladowarke</t>
+  </si>
+  <si>
+    <t>wzmacniacz</t>
+  </si>
+  <si>
+    <t>MCP6001RT-I/OT</t>
+  </si>
+  <si>
+    <t>rail to rail</t>
+  </si>
+  <si>
+    <t>SOT23-5</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/Document/c98656c49a036767b89c9bb93e3dda4a/mcp6001_2_4.pdf</t>
+  </si>
+  <si>
+    <t>tranzystor NPN 1</t>
+  </si>
+  <si>
+    <t>tranzystor NPN 2</t>
+  </si>
+  <si>
+    <t>tranzystor NPN 3</t>
+  </si>
+  <si>
+    <t>MJD31CT4</t>
+  </si>
+  <si>
+    <t>100V 3A 15W</t>
+  </si>
+  <si>
+    <t>400V; 4A; 80W</t>
+  </si>
+  <si>
+    <t>BUJ302AD,118</t>
+  </si>
+  <si>
+    <t>BUJ302AD.118</t>
+  </si>
+  <si>
+    <t>MFHA1206R1000FC</t>
+  </si>
+  <si>
+    <t>R 0.1</t>
+  </si>
+  <si>
+    <t>1W</t>
+  </si>
+  <si>
+    <t>ACS712ELCTR-20A-T</t>
+  </si>
+  <si>
+    <t>czujnik halla</t>
+  </si>
+  <si>
+    <t>ACS712ELCTR20AT</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/Document/75af175f80c090e9b8f9078a0b0b2409/ACS712.PDF</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;zł&quot;_-;\-* #,##0.00\ &quot;zł&quot;_-;_-* &quot;-&quot;??\ &quot;zł&quot;_-;_-@_-"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -212,6 +272,19 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -234,18 +307,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Hiperłącze" xfId="1" builtinId="8"/>
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
+    <cellStyle name="Walutowy" xfId="2" builtinId="4"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -537,8 +613,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8:I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -556,34 +632,34 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" t="s">
-        <v>4</v>
-      </c>
       <c r="I1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.4">
@@ -591,10 +667,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
         <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
       </c>
       <c r="D2">
         <v>6</v>
@@ -604,19 +680,19 @@
         <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G2">
         <v>9</v>
       </c>
       <c r="H2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.4">
@@ -624,10 +700,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D3">
         <v>6</v>
@@ -637,19 +713,19 @@
         <v>24</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G3">
         <v>3</v>
       </c>
       <c r="H3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.4">
@@ -657,10 +733,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
         <v>17</v>
-      </c>
-      <c r="C4" t="s">
-        <v>18</v>
       </c>
       <c r="D4">
         <v>6</v>
@@ -670,19 +746,19 @@
         <v>24</v>
       </c>
       <c r="F4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G4">
         <v>12</v>
       </c>
       <c r="H4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" t="s">
         <v>19</v>
       </c>
-      <c r="I4" t="s">
-        <v>20</v>
-      </c>
       <c r="J4" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.4">
@@ -690,10 +766,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D5">
         <v>12</v>
@@ -703,9 +779,9 @@
         <v>48</v>
       </c>
       <c r="F5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" s="2">
+        <v>24</v>
+      </c>
+      <c r="G5">
         <v>5.6</v>
       </c>
       <c r="I5">
@@ -718,10 +794,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D6">
         <v>12</v>
@@ -731,9 +807,9 @@
         <v>48</v>
       </c>
       <c r="F6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="2">
+        <v>29</v>
+      </c>
+      <c r="G6">
         <v>6.03</v>
       </c>
       <c r="I6">
@@ -746,10 +822,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D7">
         <v>6</v>
@@ -759,9 +835,9 @@
         <v>24</v>
       </c>
       <c r="F7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G7" s="2">
+        <v>32</v>
+      </c>
+      <c r="G7">
         <v>5.64</v>
       </c>
       <c r="I7">
@@ -774,10 +850,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" t="s">
         <v>34</v>
-      </c>
-      <c r="C8" t="s">
-        <v>35</v>
       </c>
       <c r="D8">
         <v>6</v>
@@ -787,9 +863,9 @@
         <v>24</v>
       </c>
       <c r="F8" t="s">
-        <v>36</v>
-      </c>
-      <c r="G8" s="2">
+        <v>35</v>
+      </c>
+      <c r="G8">
         <v>6</v>
       </c>
       <c r="I8">
@@ -802,10 +878,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D9">
         <v>4</v>
@@ -815,9 +891,9 @@
         <v>16</v>
       </c>
       <c r="F9" t="s">
-        <v>38</v>
-      </c>
-      <c r="G9" s="2">
+        <v>37</v>
+      </c>
+      <c r="G9">
         <v>6.56</v>
       </c>
       <c r="I9">
@@ -830,10 +906,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -843,9 +919,9 @@
         <v>4</v>
       </c>
       <c r="F10" t="s">
-        <v>42</v>
-      </c>
-      <c r="G10" s="2">
+        <v>41</v>
+      </c>
+      <c r="G10">
         <v>5.75</v>
       </c>
       <c r="I10">
@@ -858,10 +934,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -871,9 +947,9 @@
         <v>4</v>
       </c>
       <c r="F11" t="s">
-        <v>45</v>
-      </c>
-      <c r="G11" s="2">
+        <v>44</v>
+      </c>
+      <c r="G11">
         <v>5.16</v>
       </c>
       <c r="I11">
@@ -886,10 +962,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D12">
         <v>6</v>
@@ -899,13 +975,13 @@
         <v>24</v>
       </c>
       <c r="F12" t="s">
-        <v>49</v>
-      </c>
-      <c r="G12" s="2">
+        <v>48</v>
+      </c>
+      <c r="G12">
         <v>5.29</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I12">
         <v>805</v>
@@ -1038,108 +1114,348 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3D75E27-129B-4A64-B9AD-E5EFC0DF26BA}">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="14.765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="17.07421875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.07421875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.23046875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.23046875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="76.765625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
       </c>
       <c r="D1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="I1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2">
+        <v>5</v>
+      </c>
+      <c r="E2">
+        <f>D2*4</f>
+        <v>20</v>
+      </c>
+      <c r="F2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2">
+        <v>4</v>
+      </c>
+      <c r="H2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <f>D3*4</f>
+        <v>4</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3">
+        <v>3</v>
+      </c>
+      <c r="H3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <f>D4*4</f>
+        <v>4</v>
+      </c>
+      <c r="F4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4" s="3">
+        <v>3.4</v>
+      </c>
+      <c r="H4" t="s">
+        <v>60</v>
+      </c>
+      <c r="I4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <f>D5*4</f>
+        <v>8</v>
+      </c>
+      <c r="F5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G5" s="3">
+        <v>6</v>
+      </c>
+      <c r="H5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <f>D6*4</f>
+        <v>8</v>
+      </c>
+      <c r="F6" t="s">
+        <v>64</v>
+      </c>
+      <c r="G6" s="3">
+        <v>3.7</v>
+      </c>
+      <c r="H6" t="s">
+        <v>66</v>
+      </c>
+      <c r="I6">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7">
+        <v>12</v>
+      </c>
+      <c r="E7">
+        <f t="shared" ref="E7:E10" si="0">D7*4</f>
+        <v>48</v>
+      </c>
+      <c r="F7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7">
+        <v>6.03</v>
+      </c>
+      <c r="I7">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8">
+        <v>6</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="F8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8">
+        <v>5.64</v>
+      </c>
+      <c r="I8">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9">
+        <v>6</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="F9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9">
+        <v>6</v>
+      </c>
+      <c r="I9">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F10" t="s">
+        <v>69</v>
+      </c>
+      <c r="G10" s="2">
+        <v>45460</v>
+      </c>
+      <c r="I10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1220,6 +1536,11 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="J2" r:id="rId1" xr:uid="{7C1CD807-B7DC-4ADB-8FE5-1357B658128E}"/>
+    <hyperlink ref="J3" r:id="rId2" xr:uid="{797C5E85-882D-47F7-8433-D07ABAFD28D0}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/zakupy.xlsx
+++ b/zakupy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\piate\Documents\GitHub\Universal_charger\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B88B221-E0CF-4F69-800D-97A08F631B81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{580D7AC6-FE3E-4BF2-9CED-86D9520A70BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13920" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="78">
   <si>
     <t>symbol</t>
   </si>
@@ -251,6 +251,27 @@
   </si>
   <si>
     <t>https://www.tme.eu/Document/75af175f80c090e9b8f9078a0b0b2409/ACS712.PDF</t>
+  </si>
+  <si>
+    <t>AO4425</t>
+  </si>
+  <si>
+    <t>p mos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r 100k </t>
+  </si>
+  <si>
+    <t>c 1n</t>
+  </si>
+  <si>
+    <t>c 100n</t>
+  </si>
+  <si>
+    <t>złącze bateri XC90?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">przejrzeć masy i flagi </t>
   </si>
 </sst>
 </file>
@@ -260,7 +281,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;zł&quot;_-;\-* #,##0.00\ &quot;zł&quot;_-;_-* &quot;-&quot;??\ &quot;zł&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -289,6 +310,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -312,11 +341,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hiperłącze" xfId="1" builtinId="8"/>
@@ -1117,12 +1147,12 @@
   <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="14.765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.53515625" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="17.07421875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.07421875" bestFit="1" customWidth="1"/>
@@ -1207,11 +1237,11 @@
         <v>9</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3">
         <f>D3*4</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F3" t="s">
         <v>11</v>
@@ -1330,11 +1360,11 @@
         <v>27</v>
       </c>
       <c r="D7">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E7">
-        <f t="shared" ref="E7:E10" si="0">D7*4</f>
-        <v>48</v>
+        <f t="shared" ref="E7:E12" si="0">D7*4</f>
+        <v>52</v>
       </c>
       <c r="F7" t="s">
         <v>29</v>
@@ -1426,7 +1456,7 @@
       <c r="I10" t="s">
         <v>15</v>
       </c>
-      <c r="J10" t="s">
+      <c r="J10" s="1" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1434,30 +1464,74 @@
       <c r="A11">
         <v>10</v>
       </c>
+      <c r="B11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="F11" t="s">
+        <v>71</v>
+      </c>
+      <c r="G11">
+        <v>8</v>
+      </c>
+      <c r="I11" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>11</v>
       </c>
+      <c r="B12" t="s">
+        <v>73</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>12</v>
       </c>
+      <c r="B13" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>13</v>
       </c>
+      <c r="B14" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>14</v>
       </c>
+      <c r="B15" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>15</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.4">
@@ -1540,6 +1614,7 @@
   <hyperlinks>
     <hyperlink ref="J2" r:id="rId1" xr:uid="{7C1CD807-B7DC-4ADB-8FE5-1357B658128E}"/>
     <hyperlink ref="J3" r:id="rId2" xr:uid="{797C5E85-882D-47F7-8433-D07ABAFD28D0}"/>
+    <hyperlink ref="J10" r:id="rId3" xr:uid="{4C9A6A05-4EE9-439D-8B6B-F0B73BC66D10}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/zakupy.xlsx
+++ b/zakupy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\piate\Documents\GitHub\Universal_charger\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{580D7AC6-FE3E-4BF2-9CED-86D9520A70BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2306D00A-9306-4ED5-84F4-B69F7C602657}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13920" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="wszystko" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="87">
   <si>
     <t>symbol</t>
   </si>
@@ -265,13 +265,40 @@
     <t>c 1n</t>
   </si>
   <si>
-    <t>c 100n</t>
-  </si>
-  <si>
-    <t>złącze bateri XC90?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">przejrzeć masy i flagi </t>
+    <t>CL21B102KBANNNC</t>
+  </si>
+  <si>
+    <t>filtrujący</t>
+  </si>
+  <si>
+    <t>RC0805FR-07100KL</t>
+  </si>
+  <si>
+    <t>RC0805FR-07100K</t>
+  </si>
+  <si>
+    <t>złącze baterii XT60</t>
+  </si>
+  <si>
+    <t>złącze zasilania XT60</t>
+  </si>
+  <si>
+    <t>XT60PW-M</t>
+  </si>
+  <si>
+    <t>meskie</t>
+  </si>
+  <si>
+    <t>zenskie</t>
+  </si>
+  <si>
+    <t>XT60PW-F</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/Document/b13629717d44ae038681dba08d18c0b6/XT60PW-M.pdf</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/Document/1191bc2fa3aee3c446e5a895fd8f7983/XT60PW-F.pdf</t>
   </si>
 </sst>
 </file>
@@ -281,7 +308,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;zł&quot;_-;\-* #,##0.00\ &quot;zł&quot;_-;_-* &quot;-&quot;??\ &quot;zł&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -310,14 +337,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="238"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -341,12 +360,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hiperłącze" xfId="1" builtinId="8"/>
@@ -644,7 +662,7 @@
   <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:I8"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1136,9 +1154,10 @@
   <hyperlinks>
     <hyperlink ref="J2" r:id="rId1" xr:uid="{D014BAEC-D4B4-4C4E-A33A-2D67D4773358}"/>
     <hyperlink ref="J3" r:id="rId2" xr:uid="{923BCAD9-6E0E-4712-BCFB-88261CE6F4CB}"/>
+    <hyperlink ref="J4" r:id="rId3" xr:uid="{F07AA698-8503-4AF4-A74F-5BE3825E06F2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -1147,7 +1166,7 @@
   <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1279,7 +1298,7 @@
       <c r="F4" t="s">
         <v>59</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="2">
         <v>3.4</v>
       </c>
       <c r="H4" t="s">
@@ -1309,7 +1328,7 @@
       <c r="F5" t="s">
         <v>63</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="2">
         <v>6</v>
       </c>
       <c r="H5" t="s">
@@ -1339,7 +1358,7 @@
       <c r="F6" t="s">
         <v>64</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="2">
         <v>3.7</v>
       </c>
       <c r="H6" t="s">
@@ -1363,7 +1382,7 @@
         <v>13</v>
       </c>
       <c r="E7">
-        <f t="shared" ref="E7:E12" si="0">D7*4</f>
+        <f t="shared" ref="E7:E13" si="0">D7*4</f>
         <v>52</v>
       </c>
       <c r="F7" t="s">
@@ -1450,8 +1469,8 @@
       <c r="F10" t="s">
         <v>69</v>
       </c>
-      <c r="G10" s="2">
-        <v>45460</v>
+      <c r="G10" s="3">
+        <v>19</v>
       </c>
       <c r="I10" t="s">
         <v>15</v>
@@ -1494,6 +1513,9 @@
       <c r="B12" t="s">
         <v>73</v>
       </c>
+      <c r="C12" t="s">
+        <v>77</v>
+      </c>
       <c r="D12">
         <v>1</v>
       </c>
@@ -1501,6 +1523,15 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
+      <c r="F12" t="s">
+        <v>78</v>
+      </c>
+      <c r="G12">
+        <v>5.9</v>
+      </c>
+      <c r="I12">
+        <v>805</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A13">
@@ -1509,13 +1540,57 @@
       <c r="B13" t="s">
         <v>74</v>
       </c>
+      <c r="C13" t="s">
+        <v>75</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F13" t="s">
+        <v>75</v>
+      </c>
+      <c r="G13">
+        <v>4.68</v>
+      </c>
+      <c r="H13" t="s">
+        <v>76</v>
+      </c>
+      <c r="I13">
+        <v>805</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>75</v>
+        <v>45</v>
+      </c>
+      <c r="C14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14">
+        <v>6</v>
+      </c>
+      <c r="E14">
+        <f t="shared" ref="E14:E19" si="1">D14*4</f>
+        <v>24</v>
+      </c>
+      <c r="F14" t="s">
+        <v>48</v>
+      </c>
+      <c r="G14">
+        <v>5.29</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14">
+        <v>805</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.4">
@@ -1523,88 +1598,144 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>76</v>
+        <v>79</v>
+      </c>
+      <c r="C15" t="s">
+        <v>81</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="F15" t="s">
+        <v>81</v>
+      </c>
+      <c r="G15">
+        <v>3.5</v>
+      </c>
+      <c r="H15" t="s">
+        <v>82</v>
+      </c>
+      <c r="J15" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="E16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="E17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="E18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B19" t="s">
+        <v>80</v>
+      </c>
+      <c r="C19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="F19" t="s">
+        <v>84</v>
+      </c>
+      <c r="G19" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="H19" t="s">
+        <v>83</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1615,6 +1746,7 @@
     <hyperlink ref="J2" r:id="rId1" xr:uid="{7C1CD807-B7DC-4ADB-8FE5-1357B658128E}"/>
     <hyperlink ref="J3" r:id="rId2" xr:uid="{797C5E85-882D-47F7-8433-D07ABAFD28D0}"/>
     <hyperlink ref="J10" r:id="rId3" xr:uid="{4C9A6A05-4EE9-439D-8B6B-F0B73BC66D10}"/>
+    <hyperlink ref="J19" r:id="rId4" xr:uid="{294D51E7-2E19-44A9-8954-C93AF59BD50A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/zakupy.xlsx
+++ b/zakupy.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\piate\Documents\GitHub\Universal_charger\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kacper\Documents\GitHub\Universal_charger\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2306D00A-9306-4ED5-84F4-B69F7C602657}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="wszystko" sheetId="3" r:id="rId1"/>
     <sheet name="balanser" sheetId="1" r:id="rId2"/>
     <sheet name="pomiar rw" sheetId="2" r:id="rId3"/>
+    <sheet name="potwornica" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="112">
   <si>
     <t>symbol</t>
   </si>
@@ -299,14 +299,90 @@
   </si>
   <si>
     <t>https://www.tme.eu/Document/1191bc2fa3aee3c446e5a895fd8f7983/XT60PW-F.pdf</t>
+  </si>
+  <si>
+    <t>xl4015</t>
+  </si>
+  <si>
+    <t>układ przetwornicy</t>
+  </si>
+  <si>
+    <t>brak</t>
+  </si>
+  <si>
+    <t>dioda przetwornicy</t>
+  </si>
+  <si>
+    <t>dioda sterowania</t>
+  </si>
+  <si>
+    <t>capacitor 1uf</t>
+  </si>
+  <si>
+    <t>capacitor 330uf 50v</t>
+  </si>
+  <si>
+    <t>https://www.elecrow.com/download/XL4015_datasheet.pdf</t>
+  </si>
+  <si>
+    <t>TO263-5</t>
+  </si>
+  <si>
+    <t>10x10</t>
+  </si>
+  <si>
+    <t>08055C105KAT2A</t>
+  </si>
+  <si>
+    <t>CA1E337M10010VR</t>
+  </si>
+  <si>
+    <t>cewka 47uH 10A</t>
+  </si>
+  <si>
+    <t>rezystor 100</t>
+  </si>
+  <si>
+    <t>rezystor 820</t>
+  </si>
+  <si>
+    <t>rezystor 1k</t>
+  </si>
+  <si>
+    <t>rezystor 4.3k</t>
+  </si>
+  <si>
+    <t>rezystor 5k</t>
+  </si>
+  <si>
+    <t>rezystor 9k</t>
+  </si>
+  <si>
+    <t>rezystor 10k</t>
+  </si>
+  <si>
+    <t>SMD0805-820R</t>
+  </si>
+  <si>
+    <t>CRGCQ0805J1K0</t>
+  </si>
+  <si>
+    <t>SMD0805-4K3</t>
+  </si>
+  <si>
+    <t>SMD0805-9K1</t>
+  </si>
+  <si>
+    <t>AC0805FR-0710KL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;zł&quot;_-;\-* #,##0.00\ &quot;zł&quot;_-;_-* &quot;-&quot;??\ &quot;zł&quot;_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;zł&quot;"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -360,11 +436,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hiperłącze" xfId="1" builtinId="8"/>
@@ -646,39 +723,39 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E69E0D57-CE84-43DA-8AEA-A79560A9010F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.07421875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.53515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.4609375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.765625" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="17.61328125" customWidth="1"/>
-    <col min="7" max="7" width="6.53515625" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="22.15234375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="123.53515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" customWidth="1"/>
+    <col min="7" max="7" width="6.5703125" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="123.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -710,7 +787,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -743,7 +820,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -776,7 +853,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -809,7 +886,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -837,7 +914,7 @@
       </c>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -865,7 +942,7 @@
       </c>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -893,7 +970,7 @@
       </c>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -921,7 +998,7 @@
       </c>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -949,7 +1026,7 @@
       </c>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -977,7 +1054,7 @@
       </c>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1005,7 +1082,7 @@
       </c>
       <c r="J11" s="1"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1036,115 +1113,115 @@
       </c>
       <c r="J12" s="1"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="J13" s="1"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="J14" s="1"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="J15" s="1"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="J16" s="1"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="J17" s="1"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="J18" s="1"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="J19" s="1"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="J20" s="1"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="J21" s="1"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="J22" s="1"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="J23" s="1"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="J24" s="1"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="J25" s="1"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="J26" s="1"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="J27" s="1"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="J28" s="1"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="J29" s="1"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="J30" s="1"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1152,9 +1229,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="J2" r:id="rId1" xr:uid="{D014BAEC-D4B4-4C4E-A33A-2D67D4773358}"/>
-    <hyperlink ref="J3" r:id="rId2" xr:uid="{923BCAD9-6E0E-4712-BCFB-88261CE6F4CB}"/>
-    <hyperlink ref="J4" r:id="rId3" xr:uid="{F07AA698-8503-4AF4-A74F-5BE3825E06F2}"/>
+    <hyperlink ref="J2" r:id="rId1"/>
+    <hyperlink ref="J3" r:id="rId2"/>
+    <hyperlink ref="J4" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId4"/>
@@ -1162,25 +1239,25 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3D75E27-129B-4A64-B9AD-E5EFC0DF26BA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.53515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="17.07421875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="17.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.07421875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.23046875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.23046875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="76.765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="76.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -1212,7 +1289,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1245,7 +1322,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1278,7 +1355,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1308,7 +1385,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1338,7 +1415,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1368,7 +1445,7 @@
         <v>1206</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1395,7 +1472,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1422,7 +1499,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1449,7 +1526,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1479,7 +1556,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1506,7 +1583,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1533,7 +1610,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1563,7 +1640,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1593,7 +1670,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1623,7 +1700,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1632,7 +1709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1641,7 +1718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1650,7 +1727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1680,62 +1757,62 @@
         <v>86</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1743,11 +1820,386 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="J2" r:id="rId1" xr:uid="{7C1CD807-B7DC-4ADB-8FE5-1357B658128E}"/>
-    <hyperlink ref="J3" r:id="rId2" xr:uid="{797C5E85-882D-47F7-8433-D07ABAFD28D0}"/>
-    <hyperlink ref="J10" r:id="rId3" xr:uid="{4C9A6A05-4EE9-439D-8B6B-F0B73BC66D10}"/>
-    <hyperlink ref="J19" r:id="rId4" xr:uid="{294D51E7-2E19-44A9-8954-C93AF59BD50A}"/>
+    <hyperlink ref="J2" r:id="rId1"/>
+    <hyperlink ref="J3" r:id="rId2"/>
+    <hyperlink ref="J10" r:id="rId3"/>
+    <hyperlink ref="J19" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="19" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" customWidth="1"/>
+    <col min="5" max="5" width="19.140625" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" customWidth="1"/>
+    <col min="7" max="7" width="18.28515625" customWidth="1"/>
+    <col min="8" max="8" width="10" customWidth="1"/>
+    <col min="9" max="9" width="10.140625" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <f>D2*4</f>
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G2" s="4">
+        <v>5</v>
+      </c>
+      <c r="I2" t="s">
+        <v>95</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3">
+        <v>4</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E21" si="0">D3*4</f>
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G3" s="4">
+        <v>1.3</v>
+      </c>
+      <c r="H3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="G4" s="4"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>91</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="G6" s="4"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="F7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0.42</v>
+      </c>
+      <c r="I7">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C8" t="s">
+        <v>98</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="F8" t="s">
+        <v>98</v>
+      </c>
+      <c r="G8" s="4">
+        <v>0.95</v>
+      </c>
+      <c r="I8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>100</v>
+      </c>
+      <c r="C9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0.06</v>
+      </c>
+      <c r="I9">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>101</v>
+      </c>
+      <c r="C10" t="s">
+        <v>107</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F10" t="s">
+        <v>107</v>
+      </c>
+      <c r="G10" s="4">
+        <v>0.06</v>
+      </c>
+      <c r="I10">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>102</v>
+      </c>
+      <c r="C11" t="s">
+        <v>108</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F11" t="s">
+        <v>108</v>
+      </c>
+      <c r="G11" s="4">
+        <v>0.06</v>
+      </c>
+      <c r="I11">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>103</v>
+      </c>
+      <c r="C12" t="s">
+        <v>109</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F12" t="s">
+        <v>109</v>
+      </c>
+      <c r="G12" s="4">
+        <v>0.06</v>
+      </c>
+      <c r="I12">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>104</v>
+      </c>
+      <c r="C13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="F13" t="s">
+        <v>111</v>
+      </c>
+      <c r="G13" s="4">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I13">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>105</v>
+      </c>
+      <c r="C14" t="s">
+        <v>110</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F14" t="s">
+        <v>110</v>
+      </c>
+      <c r="G14" s="4">
+        <v>0.06</v>
+      </c>
+      <c r="I14">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>106</v>
+      </c>
+      <c r="C15" t="s">
+        <v>111</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="F15" t="s">
+        <v>111</v>
+      </c>
+      <c r="G15" s="4">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I15">
+        <v>805</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="J2" r:id="rId1"/>
+    <hyperlink ref="J3" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+</worksheet>
 </file>
--- a/zakupy.xlsx
+++ b/zakupy.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="119">
   <si>
     <t>symbol</t>
   </si>
@@ -374,6 +374,27 @@
   </si>
   <si>
     <t>AC0805FR-0710KL</t>
+  </si>
+  <si>
+    <t>LL103A-DIO</t>
+  </si>
+  <si>
+    <t>B540C-13-F</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>MiniMELF</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/pl/details/b540c-13-f/diody-schottky-smd/diodes-incorporated/</t>
+  </si>
+  <si>
+    <t>footprint na TME</t>
+  </si>
+  <si>
+    <t>0.14</t>
   </si>
 </sst>
 </file>
@@ -1834,7 +1855,7 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1845,7 +1866,7 @@
     <col min="5" max="5" width="19.140625" customWidth="1"/>
     <col min="6" max="6" width="18.42578125" customWidth="1"/>
     <col min="7" max="7" width="18.28515625" customWidth="1"/>
-    <col min="8" max="8" width="10" customWidth="1"/>
+    <col min="8" max="8" width="15.42578125" customWidth="1"/>
     <col min="9" max="9" width="10.140625" customWidth="1"/>
     <col min="10" max="10" width="10.5703125" customWidth="1"/>
   </cols>
@@ -1890,11 +1911,11 @@
         <v>87</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2">
         <f>D2*4</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F2" t="s">
         <v>89</v>
@@ -1920,7 +1941,7 @@
         <v>4</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E21" si="0">D3*4</f>
+        <f t="shared" ref="E3:E15" si="0">D3*4</f>
         <v>16</v>
       </c>
       <c r="F3" t="s">
@@ -1944,11 +1965,11 @@
         <v>99</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E4">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G4" s="4"/>
     </row>
@@ -1956,19 +1977,39 @@
       <c r="B5" t="s">
         <v>90</v>
       </c>
+      <c r="C5" t="s">
+        <v>113</v>
+      </c>
       <c r="D5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="G5" s="4"/>
+        <v>8</v>
+      </c>
+      <c r="F5" t="s">
+        <v>113</v>
+      </c>
+      <c r="G5" s="4">
+        <v>1.53</v>
+      </c>
+      <c r="H5" t="s">
+        <v>117</v>
+      </c>
+      <c r="I5" t="s">
+        <v>114</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>91</v>
       </c>
+      <c r="C6" t="s">
+        <v>112</v>
+      </c>
       <c r="D6">
         <v>3</v>
       </c>
@@ -1976,7 +2017,15 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="G6" s="4"/>
+      <c r="F6" t="s">
+        <v>112</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="I6" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
@@ -1986,11 +2035,11 @@
         <v>97</v>
       </c>
       <c r="D7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F7" t="s">
         <v>97</v>
@@ -2010,11 +2059,11 @@
         <v>98</v>
       </c>
       <c r="D8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E8">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F8" t="s">
         <v>98</v>
@@ -2082,11 +2131,11 @@
         <v>108</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E11">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F11" t="s">
         <v>108</v>
@@ -2154,11 +2203,11 @@
         <v>110</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E14">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F14" t="s">
         <v>110</v>
@@ -2198,8 +2247,9 @@
   <hyperlinks>
     <hyperlink ref="J2" r:id="rId1"/>
     <hyperlink ref="J3" r:id="rId2"/>
+    <hyperlink ref="J5" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
--- a/zakupy.xlsx
+++ b/zakupy.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="127">
   <si>
     <t>symbol</t>
   </si>
@@ -337,9 +337,6 @@
     <t>CA1E337M10010VR</t>
   </si>
   <si>
-    <t>cewka 47uH 10A</t>
-  </si>
-  <si>
     <t>rezystor 100</t>
   </si>
   <si>
@@ -382,9 +379,6 @@
     <t>B540C-13-F</t>
   </si>
   <si>
-    <t>?</t>
-  </si>
-  <si>
     <t>MiniMELF</t>
   </si>
   <si>
@@ -394,7 +388,37 @@
     <t>footprint na TME</t>
   </si>
   <si>
-    <t>0.14</t>
+    <t>? / 3220</t>
+  </si>
+  <si>
+    <t>DPU047A5</t>
+  </si>
+  <si>
+    <t>DPO-5.0-47</t>
+  </si>
+  <si>
+    <t>cewka 47uH 5A THD</t>
+  </si>
+  <si>
+    <t>trzeba stwierdzić czy 5A wystarczy (według noty przetwornicy tak)</t>
+  </si>
+  <si>
+    <t>Inductor_THT:L_Toroid_Vertical_L25.4mm_W14.7mm_P12.20mm_Vishay_TJ5</t>
+  </si>
+  <si>
+    <t>zamówiona partia z chin, najwyzej wylut z przetwornicy z allegro</t>
+  </si>
+  <si>
+    <t>imo lepiej smd</t>
+  </si>
+  <si>
+    <t>cewka 47uH 6.8A SMD</t>
+  </si>
+  <si>
+    <t>ETQP5M470YFC</t>
+  </si>
+  <si>
+    <t>Inductor_SMD:L_Bourns-SRN8040_8x8.15mm</t>
   </si>
 </sst>
 </file>
@@ -435,12 +459,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -457,12 +487,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hiperłącze" xfId="1" builtinId="8"/>
@@ -1852,21 +1884,21 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="19" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
     <col min="4" max="4" width="19.85546875" customWidth="1"/>
     <col min="5" max="5" width="19.140625" customWidth="1"/>
     <col min="6" max="6" width="18.42578125" customWidth="1"/>
     <col min="7" max="7" width="18.28515625" customWidth="1"/>
-    <col min="8" max="8" width="15.42578125" customWidth="1"/>
+    <col min="8" max="8" width="59.28515625" customWidth="1"/>
     <col min="9" max="9" width="10.140625" customWidth="1"/>
     <col min="10" max="10" width="10.5703125" customWidth="1"/>
   </cols>
@@ -1923,6 +1955,9 @@
       <c r="G2" s="4">
         <v>5</v>
       </c>
+      <c r="H2" t="s">
+        <v>122</v>
+      </c>
       <c r="I2" t="s">
         <v>95</v>
       </c>
@@ -1941,7 +1976,7 @@
         <v>4</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E15" si="0">D3*4</f>
+        <f t="shared" ref="E3:E5" si="0">D3*4</f>
         <v>16</v>
       </c>
       <c r="F3" t="s">
@@ -1961,160 +1996,177 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>99</v>
-      </c>
-      <c r="D4">
+      <c r="B4" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D4" s="5">
         <v>2</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="G4" s="4"/>
+      <c r="F4" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="G4" s="6">
+        <v>3.11</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>90</v>
-      </c>
-      <c r="C5" t="s">
-        <v>113</v>
-      </c>
-      <c r="D5">
+      <c r="B5" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="D5" s="5">
         <v>2</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="F5" t="s">
-        <v>113</v>
-      </c>
-      <c r="G5" s="4">
-        <v>1.53</v>
-      </c>
-      <c r="H5" t="s">
+      <c r="F5" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="I5" t="s">
-        <v>114</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>116</v>
+      <c r="G5" s="6">
+        <v>6</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C6" t="s">
         <v>112</v>
       </c>
       <c r="D6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E6">
-        <f t="shared" si="0"/>
-        <v>12</v>
+        <f>D6*4</f>
+        <v>8</v>
       </c>
       <c r="F6" t="s">
         <v>112</v>
       </c>
-      <c r="G6" s="4" t="s">
-        <v>118</v>
+      <c r="G6" s="4">
+        <v>1.53</v>
+      </c>
+      <c r="H6" t="s">
+        <v>115</v>
       </c>
       <c r="I6" t="s">
-        <v>115</v>
+        <v>116</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C7" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="D7">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E7">
-        <f t="shared" si="0"/>
-        <v>24</v>
+        <f>D7*4</f>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="G7" s="4">
-        <v>0.42</v>
-      </c>
-      <c r="I7">
-        <v>805</v>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="I7" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D8">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E8">
-        <f t="shared" si="0"/>
-        <v>16</v>
+        <f>D8*4</f>
+        <v>24</v>
       </c>
       <c r="F8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G8" s="4">
-        <v>0.95</v>
-      </c>
-      <c r="I8" t="s">
-        <v>96</v>
+        <v>0.42</v>
+      </c>
+      <c r="I8">
+        <v>805</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C9" t="s">
-        <v>44</v>
+        <v>98</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E9">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <f>D9*4</f>
+        <v>16</v>
       </c>
       <c r="F9" t="s">
-        <v>44</v>
+        <v>98</v>
       </c>
       <c r="G9" s="4">
-        <v>0.06</v>
-      </c>
-      <c r="I9">
-        <v>805</v>
+        <v>0.95</v>
+      </c>
+      <c r="I9" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C10" t="s">
-        <v>107</v>
+        <v>44</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
       <c r="E10">
-        <f t="shared" si="0"/>
+        <f>D10*4</f>
         <v>4</v>
       </c>
       <c r="F10" t="s">
-        <v>107</v>
+        <v>44</v>
       </c>
       <c r="G10" s="4">
         <v>0.06</v>
@@ -2125,20 +2177,20 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C11" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E11">
-        <f t="shared" si="0"/>
-        <v>8</v>
+        <f>D11*4</f>
+        <v>4</v>
       </c>
       <c r="F11" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G11" s="4">
         <v>0.06</v>
@@ -2149,20 +2201,20 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E12">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <f>D12*4</f>
+        <v>8</v>
       </c>
       <c r="F12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G12" s="4">
         <v>0.06</v>
@@ -2173,23 +2225,23 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C13" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E13">
-        <f t="shared" si="0"/>
-        <v>8</v>
+        <f>D13*4</f>
+        <v>4</v>
       </c>
       <c r="F13" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="G13" s="4">
-        <v>7.0000000000000007E-2</v>
+        <v>0.06</v>
       </c>
       <c r="I13">
         <v>805</v>
@@ -2197,7 +2249,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C14" t="s">
         <v>110</v>
@@ -2206,14 +2258,14 @@
         <v>2</v>
       </c>
       <c r="E14">
-        <f t="shared" si="0"/>
+        <f>D14*4</f>
         <v>8</v>
       </c>
       <c r="F14" t="s">
         <v>110</v>
       </c>
       <c r="G14" s="4">
-        <v>0.06</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="I14">
         <v>805</v>
@@ -2221,25 +2273,49 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C15" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D15">
         <v>2</v>
       </c>
       <c r="E15">
-        <f t="shared" si="0"/>
+        <f>D15*4</f>
         <v>8</v>
       </c>
       <c r="F15" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G15" s="4">
+        <v>0.06</v>
+      </c>
+      <c r="I15">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>105</v>
+      </c>
+      <c r="C16" t="s">
+        <v>110</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <f>D16*4</f>
+        <v>8</v>
+      </c>
+      <c r="F16" t="s">
+        <v>110</v>
+      </c>
+      <c r="G16" s="4">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="I15">
+      <c r="I16">
         <v>805</v>
       </c>
     </row>
@@ -2247,7 +2323,7 @@
   <hyperlinks>
     <hyperlink ref="J2" r:id="rId1"/>
     <hyperlink ref="J3" r:id="rId2"/>
-    <hyperlink ref="J5" r:id="rId3"/>
+    <hyperlink ref="J6" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>

--- a/zakupy.xlsx
+++ b/zakupy.xlsx
@@ -1,23 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kacper\Documents\GitHub\Universal_charger\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\piate\Documents\GitHub\Universal_charger\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E9E93DE-2BD9-42B6-9416-3AE273B6C131}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="3"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="wszystko" sheetId="3" r:id="rId1"/>
     <sheet name="balanser" sheetId="1" r:id="rId2"/>
     <sheet name="pomiar rw" sheetId="2" r:id="rId3"/>
     <sheet name="potwornica" sheetId="4" r:id="rId4"/>
+    <sheet name="zasilacz" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="148">
   <si>
     <t>symbol</t>
   </si>
@@ -395,17 +397,104 @@
   </si>
   <si>
     <t>0.14</t>
+  </si>
+  <si>
+    <t>LM2575GR-12-TT</t>
+  </si>
+  <si>
+    <t>potwornica 12v</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/Document/3c94d0e37dedee1f694b22c63aeb607d/LM2575.pdf</t>
+  </si>
+  <si>
+    <t>SS26-E3/52T</t>
+  </si>
+  <si>
+    <t>dioda s</t>
+  </si>
+  <si>
+    <t>SMB</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/Document/f04391498262404a4d8c3b3590fff881/SS24-E3-52T.pdf</t>
+  </si>
+  <si>
+    <t>dławik</t>
+  </si>
+  <si>
+    <t>DR127-331-R</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/Document/7d10de31dedabc8346ee8abdfb407bb1/dr.pdf</t>
+  </si>
+  <si>
+    <t>błąd wybuchnie</t>
+  </si>
+  <si>
+    <t>można dac taki jak  w zasilaczu</t>
+  </si>
+  <si>
+    <t>cap 50v 470uf</t>
+  </si>
+  <si>
+    <t>VB1H471MI135000CE0</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/Document/9da68dd67a86a6c6882a02b46ae9874c/VB.pdf</t>
+  </si>
+  <si>
+    <t>stab 5v</t>
+  </si>
+  <si>
+    <t>L7805ACD2T-TR</t>
+  </si>
+  <si>
+    <t>D2PAK</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/Document/ca9f9ea733232dbf9060d5224849cc58/L78.pdf</t>
+  </si>
+  <si>
+    <t>LDI1117-3.3U-DIO</t>
+  </si>
+  <si>
+    <t>SOT89</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/Document/493515917c20095fb60cb61e6bcc216a/ldi1117u.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stab 5v </t>
+  </si>
+  <si>
+    <t>LDI1117-05D-DIO</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/Document/21607dd1878e0be22e55bf720aff1e24/ldi1117d.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cap 22u </t>
+  </si>
+  <si>
+    <t>VS1C220MB054000CE0</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/Document/1b5d04ee9a6a7d81ba8d5c8ff1833f1f/VS.pdf</t>
+  </si>
+  <si>
+    <t>stab 3.3 ldo 1a</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;zł&quot;_-;\-* #,##0.00\ &quot;zł&quot;_-;_-* &quot;-&quot;??\ &quot;zł&quot;_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;zł&quot;"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -434,13 +523,45 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -457,12 +578,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hiperłącze" xfId="1" builtinId="8"/>
@@ -480,6 +607,143 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>360590</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>160564</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>122984</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>144242</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Obraz 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E01EF833-AE2F-FFCC-3035-DBE5AB56888E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="360590" y="2875189"/>
+          <a:ext cx="8457355" cy="2334986"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>140290</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>621844</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>55090</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Obraz 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2B4FBC0-8720-2205-14D7-8D2FB34374C8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="819150" y="5207590"/>
+          <a:ext cx="7181850" cy="3356046"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>65293</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>648089</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>145067</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Obraz 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1A820EC-6844-7097-FBEA-6E0132EB9C0A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8934450" y="1875043"/>
+          <a:ext cx="8591939" cy="4061219"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -744,39 +1008,39 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="3.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5703125" customWidth="1"/>
-    <col min="7" max="7" width="6.5703125" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="123.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.15234375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.69140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.53515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.3828125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.69140625" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="17.53515625" customWidth="1"/>
+    <col min="7" max="7" width="6.53515625" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="22.15234375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="123.53515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -808,7 +1072,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -841,7 +1105,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -874,7 +1138,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -907,7 +1171,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>4</v>
       </c>
@@ -935,7 +1199,7 @@
       </c>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>5</v>
       </c>
@@ -963,7 +1227,7 @@
       </c>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>6</v>
       </c>
@@ -991,7 +1255,7 @@
       </c>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1019,7 +1283,7 @@
       </c>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1047,7 +1311,7 @@
       </c>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1075,7 +1339,7 @@
       </c>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1103,7 +1367,7 @@
       </c>
       <c r="J11" s="1"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1134,115 +1398,115 @@
       </c>
       <c r="J12" s="1"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="J13" s="1"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="J14" s="1"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="J15" s="1"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="J16" s="1"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="J17" s="1"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="J18" s="1"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="J19" s="1"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="J20" s="1"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="J21" s="1"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="J22" s="1"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="J23" s="1"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="J24" s="1"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="J25" s="1"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="J26" s="1"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="J27" s="1"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="J28" s="1"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="J29" s="1"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="J30" s="1"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1250,9 +1514,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="J2" r:id="rId1"/>
-    <hyperlink ref="J3" r:id="rId2"/>
-    <hyperlink ref="J4" r:id="rId3"/>
+    <hyperlink ref="J2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="J3" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="J4" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId4"/>
@@ -1260,25 +1524,25 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B19" sqref="B19:J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.53515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="17.15234375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="76.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.15234375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.3046875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.3046875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="76.69140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -1310,7 +1574,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1343,7 +1607,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1376,7 +1640,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1406,7 +1670,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1436,7 +1700,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1466,7 +1730,7 @@
         <v>1206</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1493,7 +1757,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1520,7 +1784,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1547,7 +1811,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1567,7 +1831,7 @@
       <c r="F10" t="s">
         <v>69</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10">
         <v>19</v>
       </c>
       <c r="I10" t="s">
@@ -1577,7 +1841,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1604,7 +1868,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1631,7 +1895,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1661,7 +1925,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1675,7 +1939,7 @@
         <v>6</v>
       </c>
       <c r="E14">
-        <f t="shared" ref="E14:E19" si="1">D14*4</f>
+        <f>D14*4</f>
         <v>24</v>
       </c>
       <c r="F14" t="s">
@@ -1691,7 +1955,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1705,7 +1969,7 @@
         <v>1</v>
       </c>
       <c r="E15">
-        <f t="shared" si="1"/>
+        <f>D15*4</f>
         <v>4</v>
       </c>
       <c r="F15" t="s">
@@ -1721,119 +1985,94 @@
         <v>85</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="E16">
-        <f t="shared" si="1"/>
+        <f>D16*4</f>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="E17">
-        <f t="shared" si="1"/>
+        <f>D17*4</f>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="E18">
-        <f t="shared" si="1"/>
+        <f>D18*4</f>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" t="s">
-        <v>80</v>
-      </c>
-      <c r="C19" t="s">
-        <v>84</v>
-      </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-      <c r="E19">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="F19" t="s">
-        <v>84</v>
-      </c>
-      <c r="G19" s="3">
-        <v>3.5</v>
-      </c>
-      <c r="H19" t="s">
-        <v>83</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1841,37 +2080,36 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="J2" r:id="rId1"/>
-    <hyperlink ref="J3" r:id="rId2"/>
-    <hyperlink ref="J10" r:id="rId3"/>
-    <hyperlink ref="J19" r:id="rId4"/>
+    <hyperlink ref="J2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="J3" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="J10" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="19" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" customWidth="1"/>
-    <col min="5" max="5" width="19.140625" customWidth="1"/>
-    <col min="6" max="6" width="18.42578125" customWidth="1"/>
-    <col min="7" max="7" width="18.28515625" customWidth="1"/>
-    <col min="8" max="8" width="15.42578125" customWidth="1"/>
-    <col min="9" max="9" width="10.140625" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" customWidth="1"/>
+    <col min="4" max="4" width="19.84375" customWidth="1"/>
+    <col min="5" max="5" width="19.15234375" customWidth="1"/>
+    <col min="6" max="6" width="18.3828125" customWidth="1"/>
+    <col min="7" max="7" width="18.3046875" customWidth="1"/>
+    <col min="8" max="8" width="15.3828125" customWidth="1"/>
+    <col min="9" max="9" width="10.15234375" customWidth="1"/>
+    <col min="10" max="10" width="10.53515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -1903,7 +2141,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
         <v>88</v>
       </c>
@@ -1920,7 +2158,7 @@
       <c r="F2" t="s">
         <v>89</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="3">
         <v>5</v>
       </c>
       <c r="I2" t="s">
@@ -1930,7 +2168,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
         <v>51</v>
       </c>
@@ -1947,7 +2185,7 @@
       <c r="F3" t="s">
         <v>52</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="3">
         <v>1.3</v>
       </c>
       <c r="H3" t="s">
@@ -1960,7 +2198,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
         <v>99</v>
       </c>
@@ -1971,9 +2209,9 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="G4" s="4"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G4" s="3"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
         <v>90</v>
       </c>
@@ -1990,7 +2228,7 @@
       <c r="F5" t="s">
         <v>113</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="3">
         <v>1.53</v>
       </c>
       <c r="H5" t="s">
@@ -2003,7 +2241,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B6" t="s">
         <v>91</v>
       </c>
@@ -2020,14 +2258,14 @@
       <c r="F6" t="s">
         <v>112</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="3" t="s">
         <v>118</v>
       </c>
       <c r="I6" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B7" t="s">
         <v>92</v>
       </c>
@@ -2044,38 +2282,45 @@
       <c r="F7" t="s">
         <v>97</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="3">
         <v>0.42</v>
       </c>
       <c r="I7">
         <v>805</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="B8" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="4">
         <v>4</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="4">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="5">
         <v>0.95</v>
       </c>
-      <c r="I8" t="s">
+      <c r="H8" s="4"/>
+      <c r="I8" s="4" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J8" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="L8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B9" t="s">
         <v>100</v>
       </c>
@@ -2092,14 +2337,14 @@
       <c r="F9" t="s">
         <v>44</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="3">
         <v>0.06</v>
       </c>
       <c r="I9">
         <v>805</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B10" t="s">
         <v>101</v>
       </c>
@@ -2116,14 +2361,14 @@
       <c r="F10" t="s">
         <v>107</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="3">
         <v>0.06</v>
       </c>
       <c r="I10">
         <v>805</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B11" t="s">
         <v>102</v>
       </c>
@@ -2140,14 +2385,14 @@
       <c r="F11" t="s">
         <v>108</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="3">
         <v>0.06</v>
       </c>
       <c r="I11">
         <v>805</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B12" t="s">
         <v>103</v>
       </c>
@@ -2164,14 +2409,14 @@
       <c r="F12" t="s">
         <v>109</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="3">
         <v>0.06</v>
       </c>
       <c r="I12">
         <v>805</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B13" t="s">
         <v>104</v>
       </c>
@@ -2188,14 +2433,14 @@
       <c r="F13" t="s">
         <v>111</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="3">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="I13">
         <v>805</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B14" t="s">
         <v>105</v>
       </c>
@@ -2212,14 +2457,14 @@
       <c r="F14" t="s">
         <v>110</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14" s="3">
         <v>0.06</v>
       </c>
       <c r="I14">
         <v>805</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B15" t="s">
         <v>106</v>
       </c>
@@ -2236,7 +2481,7 @@
       <c r="F15" t="s">
         <v>111</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G15" s="3">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="I15">
@@ -2245,11 +2490,350 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="J2" r:id="rId1"/>
-    <hyperlink ref="J3" r:id="rId2"/>
-    <hyperlink ref="J5" r:id="rId3"/>
+    <hyperlink ref="J2" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="J3" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
+    <hyperlink ref="J5" r:id="rId3" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CC4667D-12AE-4FE6-8CBD-315A12AB12BE}">
+  <dimension ref="A1:J15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.765625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A2" s="8">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <f>D2*4</f>
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G2">
+        <v>3.5</v>
+      </c>
+      <c r="H2" t="s">
+        <v>83</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A3" s="7">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>4</v>
+      </c>
+      <c r="F3" t="s">
+        <v>119</v>
+      </c>
+      <c r="G3">
+        <v>5</v>
+      </c>
+      <c r="I3" t="s">
+        <v>95</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A4" s="7">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>4</v>
+      </c>
+      <c r="F4" t="s">
+        <v>122</v>
+      </c>
+      <c r="G4">
+        <v>3.7</v>
+      </c>
+      <c r="I4" t="s">
+        <v>124</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A5" s="7">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5" t="s">
+        <v>127</v>
+      </c>
+      <c r="G5">
+        <v>3.7</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A6" s="7">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>131</v>
+      </c>
+      <c r="C6" t="s">
+        <v>132</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>8</v>
+      </c>
+      <c r="F6" t="s">
+        <v>132</v>
+      </c>
+      <c r="G6">
+        <v>20</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="C7" t="s">
+        <v>135</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>4</v>
+      </c>
+      <c r="F7" t="s">
+        <v>135</v>
+      </c>
+      <c r="G7">
+        <v>3</v>
+      </c>
+      <c r="I7" t="s">
+        <v>136</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>147</v>
+      </c>
+      <c r="C8" t="s">
+        <v>138</v>
+      </c>
+      <c r="D8" s="9">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>4</v>
+      </c>
+      <c r="F8" t="s">
+        <v>138</v>
+      </c>
+      <c r="G8">
+        <v>3</v>
+      </c>
+      <c r="I8" t="s">
+        <v>139</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="C9" t="s">
+        <v>142</v>
+      </c>
+      <c r="D9" s="9">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s">
+        <v>142</v>
+      </c>
+      <c r="G9">
+        <v>3</v>
+      </c>
+      <c r="I9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>144</v>
+      </c>
+      <c r="C10" t="s">
+        <v>145</v>
+      </c>
+      <c r="D10" s="9">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>8</v>
+      </c>
+      <c r="F10" t="s">
+        <v>145</v>
+      </c>
+      <c r="G10">
+        <v>3</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A15">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="J2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
+    <hyperlink ref="J3" r:id="rId2" xr:uid="{0DE3DC24-16FB-448F-AF0E-46A29C94625B}"/>
+    <hyperlink ref="J4" r:id="rId3" xr:uid="{A58C9AB9-50D0-4D7F-95D6-BDB2F367F487}"/>
+    <hyperlink ref="J5" r:id="rId4" xr:uid="{1B4F9A6C-28AB-44F0-9E61-2896046C5FD6}"/>
+    <hyperlink ref="J7" r:id="rId5" xr:uid="{77E73AB4-F543-4605-8F37-86B824898F23}"/>
+    <hyperlink ref="J9" r:id="rId6" xr:uid="{189A2B50-AE96-45D6-AA27-71B4B9AD1B18}"/>
+    <hyperlink ref="J6" r:id="rId7" xr:uid="{C2E12E3F-4A0A-4BF5-AFAD-FF9E41F5D9B4}"/>
+    <hyperlink ref="J10" r:id="rId8" xr:uid="{245F7092-AE0D-4CC2-8C36-DF51555F4E9B}"/>
+    <hyperlink ref="J8" r:id="rId9" xr:uid="{E19A2154-3BFA-4A75-9150-3422E2D1F807}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId10"/>
+</worksheet>
 </file>
--- a/zakupy.xlsx
+++ b/zakupy.xlsx
@@ -1,23 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kacper\Documents\GitHub\Universal_charger\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\piate\Documents\GitHub\Universal_charger\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FF1F333-C3AC-4C3E-8B76-941C07E5EFEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="3"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="wszystko" sheetId="3" r:id="rId1"/>
     <sheet name="balanser" sheetId="1" r:id="rId2"/>
     <sheet name="pomiar rw" sheetId="2" r:id="rId3"/>
     <sheet name="potwornica" sheetId="4" r:id="rId4"/>
+    <sheet name="Arkusz1" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="157">
   <si>
     <t>symbol</t>
   </si>
@@ -419,17 +421,107 @@
   </si>
   <si>
     <t>Inductor_SMD:L_Bourns-SRN8040_8x8.15mm</t>
+  </si>
+  <si>
+    <t>potwornica 12v</t>
+  </si>
+  <si>
+    <t>LM2575GR-12-TT</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/Document/3c94d0e37dedee1f694b22c63aeb607d/LM2575.pdf</t>
+  </si>
+  <si>
+    <t>dioda s</t>
+  </si>
+  <si>
+    <t>SS26-E3/52T</t>
+  </si>
+  <si>
+    <t>SMB</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/Document/f04391498262404a4d8c3b3590fff881/SS24-E3-52T.pdf</t>
+  </si>
+  <si>
+    <t>dławik</t>
+  </si>
+  <si>
+    <t>DR127-331-R</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/Document/7d10de31dedabc8346ee8abdfb407bb1/dr.pdf</t>
+  </si>
+  <si>
+    <t>cap 50v 470uf</t>
+  </si>
+  <si>
+    <t>VB1H471MI135000CE0</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/Document/9da68dd67a86a6c6882a02b46ae9874c/VB.pdf</t>
+  </si>
+  <si>
+    <t>stab 5v</t>
+  </si>
+  <si>
+    <t>L7805ACD2T-TR</t>
+  </si>
+  <si>
+    <t>D2PAK</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/Document/ca9f9ea733232dbf9060d5224849cc58/L78.pdf</t>
+  </si>
+  <si>
+    <t>stab 3.3 ldo 1a</t>
+  </si>
+  <si>
+    <t>LDI1117-3.3U-DIO</t>
+  </si>
+  <si>
+    <t>SOT89</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/Document/493515917c20095fb60cb61e6bcc216a/ldi1117u.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stab 5v </t>
+  </si>
+  <si>
+    <t>LDI1117-05D-DIO</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/Document/21607dd1878e0be22e55bf720aff1e24/ldi1117d.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cap 22u </t>
+  </si>
+  <si>
+    <t>VS1C220MB054000CE0</t>
+  </si>
+  <si>
+    <t>https://www.tme.eu/Document/1b5d04ee9a6a7d81ba8d5c8ff1833f1f/VS.pdf</t>
+  </si>
+  <si>
+    <t>błąd wybuchnie</t>
+  </si>
+  <si>
+    <t>za niskie napiecie pracy</t>
+  </si>
+  <si>
+    <t>można uzyc tgo z zasilacza 370u</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;zł&quot;_-;\-* #,##0.00\ &quot;zł&quot;_-;_-* &quot;-&quot;??\ &quot;zł&quot;_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;zł&quot;"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -458,8 +550,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -469,6 +569,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -487,14 +611,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hiperłącze" xfId="1" builtinId="8"/>
@@ -512,6 +641,143 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>360590</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>160564</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>241366</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>20417</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Obraz 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8607130E-9ABE-4579-B45B-3E27CB700A28}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="360590" y="2936421"/>
+          <a:ext cx="8421980" cy="2389421"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>140290</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>91165</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>134012</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Obraz 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54AFEFC4-2FD2-4604-9E6D-CD57A44EC4B1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="815068" y="5321890"/>
+          <a:ext cx="7160076" cy="3430886"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>65293</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>596382</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>55261</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Obraz 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5276EB9-B698-48D3-93FD-FE0D4114B7E0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9259661" y="1915864"/>
+          <a:ext cx="8538871" cy="4151032"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -776,39 +1042,39 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="3.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5703125" customWidth="1"/>
-    <col min="7" max="7" width="6.5703125" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="123.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.15234375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.69140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.53515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.3828125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.69140625" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="17.53515625" customWidth="1"/>
+    <col min="7" max="7" width="6.53515625" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="22.15234375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="123.53515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -840,7 +1106,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -873,7 +1139,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -906,7 +1172,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -939,7 +1205,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>4</v>
       </c>
@@ -967,7 +1233,7 @@
       </c>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>5</v>
       </c>
@@ -995,7 +1261,7 @@
       </c>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1023,7 +1289,7 @@
       </c>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1051,7 +1317,7 @@
       </c>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1079,7 +1345,7 @@
       </c>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1107,7 +1373,7 @@
       </c>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1135,7 +1401,7 @@
       </c>
       <c r="J11" s="1"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1166,115 +1432,115 @@
       </c>
       <c r="J12" s="1"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="J13" s="1"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="J14" s="1"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="J15" s="1"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="J16" s="1"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="J17" s="1"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="J18" s="1"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="J19" s="1"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="J20" s="1"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="J21" s="1"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="J22" s="1"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="J23" s="1"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="J24" s="1"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="J25" s="1"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="J26" s="1"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="J27" s="1"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="J28" s="1"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="J29" s="1"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="J30" s="1"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1282,9 +1548,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="J2" r:id="rId1"/>
-    <hyperlink ref="J3" r:id="rId2"/>
-    <hyperlink ref="J4" r:id="rId3"/>
+    <hyperlink ref="J2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="J3" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="J4" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId4"/>
@@ -1292,25 +1558,25 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.53515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="17.15234375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="76.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.15234375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.3046875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.3046875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="76.69140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -1342,7 +1608,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1375,7 +1641,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1408,7 +1674,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1438,7 +1704,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1468,7 +1734,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1498,7 +1764,7 @@
         <v>1206</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1525,7 +1791,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1552,7 +1818,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1579,7 +1845,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1599,7 +1865,7 @@
       <c r="F10" t="s">
         <v>69</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10">
         <v>19</v>
       </c>
       <c r="I10" t="s">
@@ -1609,7 +1875,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1636,7 +1902,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1663,7 +1929,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1693,7 +1959,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1723,7 +1989,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1753,7 +2019,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1762,7 +2028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1771,7 +2037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1780,7 +2046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1800,7 +2066,7 @@
       <c r="F19" t="s">
         <v>84</v>
       </c>
-      <c r="G19" s="3">
+      <c r="G19">
         <v>3.5</v>
       </c>
       <c r="H19" t="s">
@@ -1810,62 +2076,62 @@
         <v>86</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1873,37 +2139,39 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="J2" r:id="rId1"/>
-    <hyperlink ref="J3" r:id="rId2"/>
-    <hyperlink ref="J10" r:id="rId3"/>
-    <hyperlink ref="J19" r:id="rId4"/>
+    <hyperlink ref="J2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="J3" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="J10" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="J19" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="20" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" customWidth="1"/>
-    <col min="5" max="5" width="19.140625" customWidth="1"/>
-    <col min="6" max="6" width="18.42578125" customWidth="1"/>
-    <col min="7" max="7" width="18.28515625" customWidth="1"/>
-    <col min="8" max="8" width="59.28515625" customWidth="1"/>
-    <col min="9" max="9" width="10.140625" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" customWidth="1"/>
+    <col min="4" max="4" width="19.84375" customWidth="1"/>
+    <col min="5" max="5" width="19.15234375" customWidth="1"/>
+    <col min="6" max="6" width="18.3828125" customWidth="1"/>
+    <col min="7" max="7" width="18.3046875" customWidth="1"/>
+    <col min="8" max="8" width="59.3046875" customWidth="1"/>
+    <col min="9" max="9" width="10.15234375" customWidth="1"/>
+    <col min="10" max="10" width="16.3046875" customWidth="1"/>
+    <col min="11" max="11" width="20.84375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="27.15234375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -1935,7 +2203,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
         <v>88</v>
       </c>
@@ -1952,7 +2220,7 @@
       <c r="F2" t="s">
         <v>89</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="3">
         <v>5</v>
       </c>
       <c r="H2" t="s">
@@ -1965,7 +2233,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
         <v>51</v>
       </c>
@@ -1982,7 +2250,7 @@
       <c r="F3" t="s">
         <v>52</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="3">
         <v>1.3</v>
       </c>
       <c r="H3" t="s">
@@ -1995,61 +2263,61 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="5" t="s">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="B4" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="4">
         <v>2</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="4">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="5">
         <v>3.11</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="I4" s="4" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="5" t="s">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="B5" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="4">
         <v>2</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="4">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="5">
         <v>6</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="I5" s="4" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B6" t="s">
         <v>90</v>
       </c>
@@ -2060,13 +2328,13 @@
         <v>2</v>
       </c>
       <c r="E6">
-        <f>D6*4</f>
+        <f t="shared" ref="E6:E16" si="1">D6*4</f>
         <v>8</v>
       </c>
       <c r="F6" t="s">
         <v>112</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="3">
         <v>1.53</v>
       </c>
       <c r="H6" t="s">
@@ -2079,7 +2347,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B7" t="s">
         <v>91</v>
       </c>
@@ -2090,20 +2358,20 @@
         <v>3</v>
       </c>
       <c r="E7">
-        <f>D7*4</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="F7" t="s">
         <v>111</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="3">
         <v>0.14000000000000001</v>
       </c>
       <c r="I7" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B8" t="s">
         <v>92</v>
       </c>
@@ -2114,44 +2382,54 @@
         <v>6</v>
       </c>
       <c r="E8">
-        <f>D8*4</f>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="F8" t="s">
         <v>97</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="3">
         <v>0.42</v>
       </c>
       <c r="I8">
         <v>805</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="B9" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="9">
         <v>4</v>
       </c>
-      <c r="E9">
-        <f>D9*4</f>
+      <c r="E9" s="9">
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="10">
         <v>0.95</v>
       </c>
-      <c r="I9" t="s">
+      <c r="H9" s="9"/>
+      <c r="I9" s="9" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J9" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="M9" s="9" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B10" t="s">
         <v>99</v>
       </c>
@@ -2162,20 +2440,20 @@
         <v>1</v>
       </c>
       <c r="E10">
-        <f>D10*4</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="F10" t="s">
         <v>44</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="3">
         <v>0.06</v>
       </c>
       <c r="I10">
         <v>805</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B11" t="s">
         <v>100</v>
       </c>
@@ -2186,20 +2464,20 @@
         <v>1</v>
       </c>
       <c r="E11">
-        <f>D11*4</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="F11" t="s">
         <v>106</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="3">
         <v>0.06</v>
       </c>
       <c r="I11">
         <v>805</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B12" t="s">
         <v>101</v>
       </c>
@@ -2210,20 +2488,20 @@
         <v>2</v>
       </c>
       <c r="E12">
-        <f>D12*4</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="F12" t="s">
         <v>107</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="3">
         <v>0.06</v>
       </c>
       <c r="I12">
         <v>805</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B13" t="s">
         <v>102</v>
       </c>
@@ -2234,20 +2512,20 @@
         <v>1</v>
       </c>
       <c r="E13">
-        <f>D13*4</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="F13" t="s">
         <v>108</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="3">
         <v>0.06</v>
       </c>
       <c r="I13">
         <v>805</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B14" t="s">
         <v>103</v>
       </c>
@@ -2258,20 +2536,20 @@
         <v>2</v>
       </c>
       <c r="E14">
-        <f>D14*4</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="F14" t="s">
         <v>110</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14" s="3">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="I14">
         <v>805</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B15" t="s">
         <v>104</v>
       </c>
@@ -2282,20 +2560,20 @@
         <v>2</v>
       </c>
       <c r="E15">
-        <f>D15*4</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="F15" t="s">
         <v>109</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G15" s="3">
         <v>0.06</v>
       </c>
       <c r="I15">
         <v>805</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B16" t="s">
         <v>105</v>
       </c>
@@ -2306,13 +2584,13 @@
         <v>2</v>
       </c>
       <c r="E16">
-        <f>D16*4</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="F16" t="s">
         <v>110</v>
       </c>
-      <c r="G16" s="4">
+      <c r="G16" s="3">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="I16">
@@ -2321,11 +2599,345 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="J2" r:id="rId1"/>
-    <hyperlink ref="J3" r:id="rId2"/>
-    <hyperlink ref="J6" r:id="rId3"/>
+    <hyperlink ref="J2" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="J3" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
+    <hyperlink ref="J6" r:id="rId3" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AED8BA4-572C-4BF3-BCB0-202E3FF16419}">
+  <dimension ref="A1:J15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <f>D2*4</f>
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G2">
+        <v>3.5</v>
+      </c>
+      <c r="H2" t="s">
+        <v>83</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A3" s="7">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>4</v>
+      </c>
+      <c r="F3" t="s">
+        <v>128</v>
+      </c>
+      <c r="G3">
+        <v>5</v>
+      </c>
+      <c r="I3" t="s">
+        <v>95</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A4" s="7">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>4</v>
+      </c>
+      <c r="F4" t="s">
+        <v>131</v>
+      </c>
+      <c r="G4">
+        <v>3.7</v>
+      </c>
+      <c r="I4" t="s">
+        <v>132</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A5" s="7">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5" t="s">
+        <v>135</v>
+      </c>
+      <c r="G5">
+        <v>3.7</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A6" s="7">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>137</v>
+      </c>
+      <c r="C6" t="s">
+        <v>138</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>8</v>
+      </c>
+      <c r="F6" t="s">
+        <v>138</v>
+      </c>
+      <c r="G6">
+        <v>20</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="C7" t="s">
+        <v>141</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>4</v>
+      </c>
+      <c r="F7" t="s">
+        <v>141</v>
+      </c>
+      <c r="G7">
+        <v>3</v>
+      </c>
+      <c r="I7" t="s">
+        <v>142</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>144</v>
+      </c>
+      <c r="C8" t="s">
+        <v>145</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>4</v>
+      </c>
+      <c r="F8" t="s">
+        <v>145</v>
+      </c>
+      <c r="G8">
+        <v>3</v>
+      </c>
+      <c r="I8" t="s">
+        <v>146</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="C9" t="s">
+        <v>149</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s">
+        <v>149</v>
+      </c>
+      <c r="G9">
+        <v>3</v>
+      </c>
+      <c r="I9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>151</v>
+      </c>
+      <c r="C10" t="s">
+        <v>152</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>8</v>
+      </c>
+      <c r="F10" t="s">
+        <v>152</v>
+      </c>
+      <c r="G10">
+        <v>3</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A15">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="J2" r:id="rId1" xr:uid="{E8B27604-0996-4D6A-974C-E9E6AA803145}"/>
+    <hyperlink ref="J3" r:id="rId2" xr:uid="{EC82D423-A677-4CA0-A48F-8818AEB2ABF0}"/>
+    <hyperlink ref="J4" r:id="rId3" xr:uid="{27993929-378B-441D-9683-A6F04B9431BD}"/>
+    <hyperlink ref="J5" r:id="rId4" xr:uid="{BC3754DB-8752-4481-9D83-6E1EFFFBB4C7}"/>
+    <hyperlink ref="J7" r:id="rId5" xr:uid="{363EF30B-6023-4228-BB8E-DA374F86050F}"/>
+    <hyperlink ref="J9" r:id="rId6" xr:uid="{CF182114-B4B2-42FD-ACDC-848EEC884974}"/>
+    <hyperlink ref="J6" r:id="rId7" xr:uid="{5748F3A8-09EA-4B60-9588-990F82B8D702}"/>
+    <hyperlink ref="J10" r:id="rId8" xr:uid="{A0178623-58F1-4F8A-8BBD-9223CC348CF8}"/>
+    <hyperlink ref="J8" r:id="rId9" xr:uid="{AB5244C3-1463-4277-ACB3-AF9949791B36}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId10"/>
+</worksheet>
 </file>
--- a/zakupy.xlsx
+++ b/zakupy.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\piate\Documents\GitHub\Universal_charger\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FF1F333-C3AC-4C3E-8B76-941C07E5EFEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25340499-D1BD-462B-AEA1-5217D7E8C556}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="wszystko" sheetId="3" r:id="rId1"/>
     <sheet name="balanser" sheetId="1" r:id="rId2"/>
     <sheet name="pomiar rw" sheetId="2" r:id="rId3"/>
     <sheet name="potwornica" sheetId="4" r:id="rId4"/>
-    <sheet name="Arkusz1" sheetId="5" r:id="rId5"/>
+    <sheet name="zasilacz" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="161">
   <si>
     <t>symbol</t>
   </si>
@@ -511,6 +511,18 @@
   </si>
   <si>
     <t>można uzyc tgo z zasilacza 370u</t>
+  </si>
+  <si>
+    <t>wzmacniacz r-t-r</t>
+  </si>
+  <si>
+    <t>C 1n</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R 100k </t>
+  </si>
+  <si>
+    <t>SRN8040_8x8.15mm</t>
   </si>
 </sst>
 </file>
@@ -559,7 +571,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -596,6 +608,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -611,7 +635,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
@@ -624,6 +648,10 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hiperłącze" xfId="1" builtinId="8"/>
@@ -644,6 +672,55 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>10886</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>39461</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>5355157</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>96872</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Obraz 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{366FBB79-5244-508E-0329-01F63F15166E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10316936" y="6554561"/>
+          <a:ext cx="5344271" cy="1867161"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1043,13 +1120,984 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="G45" sqref="G45"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="19.765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.4609375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.3046875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.23046875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.07421875" customWidth="1"/>
+    <col min="10" max="10" width="123.53515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2">
+        <v>6</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2">
+        <f>D2*4</f>
+        <v>24</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3">
+        <f>6+1+1</f>
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3">
+        <f>D3*4</f>
+        <v>32</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4">
+        <v>6</v>
+      </c>
+      <c r="F4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4">
+        <f>D4*4</f>
+        <v>24</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5">
+        <f>12+2</f>
+        <v>14</v>
+      </c>
+      <c r="F5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5">
+        <f>D5*4</f>
+        <v>56</v>
+      </c>
+      <c r="I5" s="13">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6">
+        <f>12+3+1+4</f>
+        <v>20</v>
+      </c>
+      <c r="F6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6">
+        <f>D6*4</f>
+        <v>80</v>
+      </c>
+      <c r="I6" s="13">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7">
+        <f>6+8+5</f>
+        <v>19</v>
+      </c>
+      <c r="F7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7">
+        <f>D7*4</f>
+        <v>76</v>
+      </c>
+      <c r="I7" s="13">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8">
+        <f>6+1+1</f>
+        <v>8</v>
+      </c>
+      <c r="F8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8">
+        <f>D8*4</f>
+        <v>32</v>
+      </c>
+      <c r="I8" s="13">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9">
+        <v>4</v>
+      </c>
+      <c r="F9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9">
+        <f>D9*4</f>
+        <v>16</v>
+      </c>
+      <c r="I9" s="13">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="F10" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10">
+        <f>D10*4</f>
+        <v>4</v>
+      </c>
+      <c r="I10" s="13">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="F11" t="s">
+        <v>44</v>
+      </c>
+      <c r="G11">
+        <f>D11*4</f>
+        <v>4</v>
+      </c>
+      <c r="I11" s="13">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12">
+        <f>6+4+4+2</f>
+        <v>16</v>
+      </c>
+      <c r="F12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G12">
+        <f>D12*4</f>
+        <v>64</v>
+      </c>
+      <c r="I12" s="13">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>80</v>
+      </c>
+      <c r="C13" t="s">
+        <v>84</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="F13" t="s">
+        <v>84</v>
+      </c>
+      <c r="G13">
+        <f>D13*4</f>
+        <v>4</v>
+      </c>
+      <c r="I13" s="13"/>
+      <c r="J13" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>127</v>
+      </c>
+      <c r="C14" t="s">
+        <v>128</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="F14" t="s">
+        <v>128</v>
+      </c>
+      <c r="G14">
+        <f>D14*4</f>
+        <v>4</v>
+      </c>
+      <c r="I14" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>130</v>
+      </c>
+      <c r="C15" t="s">
+        <v>131</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="F15" t="s">
+        <v>131</v>
+      </c>
+      <c r="G15">
+        <f>D15*4</f>
+        <v>4</v>
+      </c>
+      <c r="I15" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>134</v>
+      </c>
+      <c r="C16" t="s">
+        <v>135</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="F16" t="s">
+        <v>135</v>
+      </c>
+      <c r="G16">
+        <f>D16*4</f>
+        <v>4</v>
+      </c>
+      <c r="I16" s="13"/>
+      <c r="J16" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>137</v>
+      </c>
+      <c r="C17" t="s">
+        <v>138</v>
+      </c>
+      <c r="D17">
+        <f>2+4</f>
+        <v>6</v>
+      </c>
+      <c r="F17" t="s">
+        <v>138</v>
+      </c>
+      <c r="G17">
+        <f>D17*4</f>
+        <v>24</v>
+      </c>
+      <c r="I17" s="13"/>
+      <c r="J17" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="C18" t="s">
+        <v>141</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="F18" t="s">
+        <v>141</v>
+      </c>
+      <c r="G18">
+        <f>D18*4</f>
+        <v>4</v>
+      </c>
+      <c r="I18" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>144</v>
+      </c>
+      <c r="C19" t="s">
+        <v>145</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="F19" t="s">
+        <v>145</v>
+      </c>
+      <c r="G19">
+        <f>D19*4</f>
+        <v>4</v>
+      </c>
+      <c r="I19" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>151</v>
+      </c>
+      <c r="C20" t="s">
+        <v>152</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="F20" t="s">
+        <v>152</v>
+      </c>
+      <c r="G20">
+        <f>D20*4</f>
+        <v>8</v>
+      </c>
+      <c r="I20" s="13"/>
+      <c r="J20" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>157</v>
+      </c>
+      <c r="C21" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21">
+        <f>4+1+5</f>
+        <v>10</v>
+      </c>
+      <c r="F21" t="s">
+        <v>52</v>
+      </c>
+      <c r="G21">
+        <f>D21*4</f>
+        <v>40</v>
+      </c>
+      <c r="I21" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="F22" t="s">
+        <v>59</v>
+      </c>
+      <c r="G22">
+        <f>D22*4</f>
+        <v>4</v>
+      </c>
+      <c r="I22" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="J22" s="1"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" t="s">
+        <v>62</v>
+      </c>
+      <c r="D23">
+        <v>2</v>
+      </c>
+      <c r="F23" t="s">
+        <v>63</v>
+      </c>
+      <c r="G23">
+        <f>D23*4</f>
+        <v>8</v>
+      </c>
+      <c r="I23" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>65</v>
+      </c>
+      <c r="C24" t="s">
+        <v>64</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+      <c r="F24" t="s">
+        <v>64</v>
+      </c>
+      <c r="G24">
+        <f>D24*4</f>
+        <v>8</v>
+      </c>
+      <c r="I24" s="13">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" t="s">
+        <v>34</v>
+      </c>
+      <c r="D25">
+        <v>6</v>
+      </c>
+      <c r="F25" t="s">
+        <v>35</v>
+      </c>
+      <c r="G25">
+        <f>D25*4</f>
+        <v>24</v>
+      </c>
+      <c r="I25" s="13">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>68</v>
+      </c>
+      <c r="C26" t="s">
+        <v>67</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="F26" t="s">
+        <v>69</v>
+      </c>
+      <c r="G26">
+        <f>D26*4</f>
+        <v>4</v>
+      </c>
+      <c r="I26" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>72</v>
+      </c>
+      <c r="C27" t="s">
+        <v>71</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G27">
+        <f>D27*4</f>
+        <v>8</v>
+      </c>
+      <c r="I27" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>159</v>
+      </c>
+      <c r="C28" t="s">
+        <v>77</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="F28" t="s">
+        <v>78</v>
+      </c>
+      <c r="G28">
+        <f>D28*4</f>
+        <v>4</v>
+      </c>
+      <c r="I28">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>158</v>
+      </c>
+      <c r="C29" t="s">
+        <v>75</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="F29" t="s">
+        <v>75</v>
+      </c>
+      <c r="G29">
+        <f>D29*4</f>
+        <v>4</v>
+      </c>
+      <c r="I29">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>79</v>
+      </c>
+      <c r="C30" t="s">
+        <v>81</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="F30" t="s">
+        <v>81</v>
+      </c>
+      <c r="G30">
+        <f>D30*4</f>
+        <v>4</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>80</v>
+      </c>
+      <c r="C31" t="s">
+        <v>84</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="F31" t="s">
+        <v>84</v>
+      </c>
+      <c r="G31">
+        <f>D31*4</f>
+        <v>4</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>124</v>
+      </c>
+      <c r="C32" t="s">
+        <v>125</v>
+      </c>
+      <c r="D32">
+        <v>2</v>
+      </c>
+      <c r="F32" t="s">
+        <v>125</v>
+      </c>
+      <c r="G32">
+        <f>D32*4</f>
+        <v>8</v>
+      </c>
+      <c r="I32" t="s">
+        <v>160</v>
+      </c>
+      <c r="J32" s="1"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>90</v>
+      </c>
+      <c r="C33" t="s">
+        <v>112</v>
+      </c>
+      <c r="D33">
+        <v>2</v>
+      </c>
+      <c r="F33" t="s">
+        <v>112</v>
+      </c>
+      <c r="G33">
+        <f>D33*4</f>
+        <v>8</v>
+      </c>
+      <c r="I33" t="s">
+        <v>116</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>91</v>
+      </c>
+      <c r="C34" t="s">
+        <v>111</v>
+      </c>
+      <c r="D34">
+        <v>3</v>
+      </c>
+      <c r="F34" t="s">
+        <v>111</v>
+      </c>
+      <c r="G34">
+        <f>D34*4</f>
+        <v>12</v>
+      </c>
+      <c r="I34" t="s">
+        <v>113</v>
+      </c>
+      <c r="J34" s="1"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>92</v>
+      </c>
+      <c r="C35" t="s">
+        <v>97</v>
+      </c>
+      <c r="D35">
+        <v>6</v>
+      </c>
+      <c r="F35" t="s">
+        <v>97</v>
+      </c>
+      <c r="G35">
+        <f>D35*4</f>
+        <v>24</v>
+      </c>
+      <c r="I35">
+        <v>805</v>
+      </c>
+      <c r="J35" s="1"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="C36" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="D36">
+        <v>2</v>
+      </c>
+      <c r="F36" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="G36">
+        <f>D36*4</f>
+        <v>8</v>
+      </c>
+      <c r="H36" s="14"/>
+      <c r="I36" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="J36" s="15" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A37">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A38">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A39">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="J40" s="11"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A41">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="J13" r:id="rId1" xr:uid="{3C8EA06C-C45A-4C3C-9CD0-70B7BE2B79DA}"/>
+    <hyperlink ref="J14" r:id="rId2" xr:uid="{C50DAC48-9521-4074-AA48-8C2DA5C1DF04}"/>
+    <hyperlink ref="J15" r:id="rId3" xr:uid="{37601E31-38A3-4CF9-BA10-C3FE6E67E024}"/>
+    <hyperlink ref="J16" r:id="rId4" xr:uid="{5065B9AB-7685-49E0-B096-D92A623881D7}"/>
+    <hyperlink ref="J18" r:id="rId5" xr:uid="{C4B1ECDB-B72D-4B88-829A-643C74638A90}"/>
+    <hyperlink ref="J17" r:id="rId6" xr:uid="{7EF59438-E8CC-4476-AB66-813EE9282645}"/>
+    <hyperlink ref="J20" r:id="rId7" xr:uid="{2CA6A8DE-8A0E-414B-BB17-B1765FBF1393}"/>
+    <hyperlink ref="J19" r:id="rId8" xr:uid="{DF6195E2-AF52-4A8C-91F2-7EE53BFCC9F5}"/>
+    <hyperlink ref="J2" r:id="rId9" xr:uid="{B95FDA38-E095-42F9-BFC7-2CF47A9DF44F}"/>
+    <hyperlink ref="J3" r:id="rId10" xr:uid="{57A76EF5-9D07-4089-B3D3-B713AD100EC0}"/>
+    <hyperlink ref="J4" r:id="rId11" xr:uid="{AACAD524-006A-4BE6-8563-AE0E2657E0C4}"/>
+    <hyperlink ref="J21" r:id="rId12" xr:uid="{EA631A13-B2FC-45AD-952F-943CC5F23D72}"/>
+    <hyperlink ref="J26" r:id="rId13" xr:uid="{C66C0BB3-D12B-484A-A704-EA073233BEDA}"/>
+    <hyperlink ref="J31" r:id="rId14" xr:uid="{6F70F565-2086-4836-AAB3-DB15864F5856}"/>
+    <hyperlink ref="J36" r:id="rId15" xr:uid="{5A88BB9F-53F8-4D02-B9C7-078341C77496}"/>
+    <hyperlink ref="J33" r:id="rId16" xr:uid="{92B6920F-2AA7-4612-832A-2E9CD709B1EC}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId17"/>
 </worksheet>
 </file>
 
@@ -1058,7 +2106,7 @@
   <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="J2" sqref="J2:J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1562,7 +2610,7 @@
   <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B2" sqref="B2:J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -2152,8 +3200,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -2613,7 +3661,7 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="B2" sqref="B2:J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>

--- a/zakupy.xlsx
+++ b/zakupy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\piate\Documents\GitHub\Universal_charger\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25340499-D1BD-462B-AEA1-5217D7E8C556}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D58D7BF-E234-428E-BF9B-6BFEBB464778}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="wszystko" sheetId="3" r:id="rId1"/>
@@ -648,7 +648,7 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="1" applyFill="1"/>
@@ -1122,8 +1122,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="G45" sqref="G45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1178,7 +1178,7 @@
         <v>7</v>
       </c>
       <c r="G2">
-        <f>D2*4</f>
+        <f t="shared" ref="G2:G36" si="0">D2*4</f>
         <v>24</v>
       </c>
       <c r="I2" s="13" t="s">
@@ -1206,7 +1206,7 @@
         <v>11</v>
       </c>
       <c r="G3">
-        <f>D3*4</f>
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="I3" s="13" t="s">
@@ -1233,7 +1233,7 @@
         <v>17</v>
       </c>
       <c r="G4">
-        <f>D4*4</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="I4" s="13" t="s">
@@ -1261,7 +1261,7 @@
         <v>24</v>
       </c>
       <c r="G5">
-        <f>D5*4</f>
+        <f t="shared" si="0"/>
         <v>56</v>
       </c>
       <c r="I5" s="13">
@@ -1286,7 +1286,7 @@
         <v>29</v>
       </c>
       <c r="G6">
-        <f>D6*4</f>
+        <f t="shared" si="0"/>
         <v>80</v>
       </c>
       <c r="I6" s="13">
@@ -1311,7 +1311,7 @@
         <v>32</v>
       </c>
       <c r="G7">
-        <f>D7*4</f>
+        <f t="shared" si="0"/>
         <v>76</v>
       </c>
       <c r="I7" s="13">
@@ -1336,7 +1336,7 @@
         <v>35</v>
       </c>
       <c r="G8">
-        <f>D8*4</f>
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="I8" s="13">
@@ -1360,7 +1360,7 @@
         <v>37</v>
       </c>
       <c r="G9">
-        <f>D9*4</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="I9" s="13">
@@ -1384,7 +1384,7 @@
         <v>41</v>
       </c>
       <c r="G10">
-        <f>D10*4</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="I10" s="13">
@@ -1408,7 +1408,7 @@
         <v>44</v>
       </c>
       <c r="G11">
-        <f>D11*4</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="I11" s="13">
@@ -1433,7 +1433,7 @@
         <v>48</v>
       </c>
       <c r="G12">
-        <f>D12*4</f>
+        <f t="shared" si="0"/>
         <v>64</v>
       </c>
       <c r="I12" s="13">
@@ -1457,7 +1457,7 @@
         <v>84</v>
       </c>
       <c r="G13">
-        <f>D13*4</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="I13" s="13"/>
@@ -1482,7 +1482,7 @@
         <v>128</v>
       </c>
       <c r="G14">
-        <f>D14*4</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="I14" s="13" t="s">
@@ -1509,7 +1509,7 @@
         <v>131</v>
       </c>
       <c r="G15">
-        <f>D15*4</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="I15" s="13" t="s">
@@ -1536,7 +1536,7 @@
         <v>135</v>
       </c>
       <c r="G16">
-        <f>D16*4</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="I16" s="13"/>
@@ -1562,7 +1562,7 @@
         <v>138</v>
       </c>
       <c r="G17">
-        <f>D17*4</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="I17" s="13"/>
@@ -1587,7 +1587,7 @@
         <v>141</v>
       </c>
       <c r="G18">
-        <f>D18*4</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="I18" s="13" t="s">
@@ -1614,7 +1614,7 @@
         <v>145</v>
       </c>
       <c r="G19">
-        <f>D19*4</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="I19" s="13" t="s">
@@ -1641,7 +1641,7 @@
         <v>152</v>
       </c>
       <c r="G20">
-        <f>D20*4</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="I20" s="13"/>
@@ -1667,7 +1667,7 @@
         <v>52</v>
       </c>
       <c r="G21">
-        <f>D21*4</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="I21" s="13" t="s">
@@ -1694,7 +1694,7 @@
         <v>59</v>
       </c>
       <c r="G22">
-        <f>D22*4</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="I22" s="13" t="s">
@@ -1719,7 +1719,7 @@
         <v>63</v>
       </c>
       <c r="G23">
-        <f>D23*4</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="I23" s="13" t="s">
@@ -1743,7 +1743,7 @@
         <v>64</v>
       </c>
       <c r="G24">
-        <f>D24*4</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="I24" s="13">
@@ -1767,7 +1767,7 @@
         <v>35</v>
       </c>
       <c r="G25">
-        <f>D25*4</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="I25" s="13">
@@ -1791,7 +1791,7 @@
         <v>69</v>
       </c>
       <c r="G26">
-        <f>D26*4</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="I26" s="13" t="s">
@@ -1818,7 +1818,7 @@
         <v>71</v>
       </c>
       <c r="G27">
-        <f>D27*4</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="I27" t="s">
@@ -1842,7 +1842,7 @@
         <v>78</v>
       </c>
       <c r="G28">
-        <f>D28*4</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="I28">
@@ -1866,7 +1866,7 @@
         <v>75</v>
       </c>
       <c r="G29">
-        <f>D29*4</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="I29">
@@ -1890,7 +1890,7 @@
         <v>81</v>
       </c>
       <c r="G30">
-        <f>D30*4</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="J30" s="1" t="s">
@@ -1914,7 +1914,7 @@
         <v>84</v>
       </c>
       <c r="G31">
-        <f>D31*4</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="J31" s="1" t="s">
@@ -1938,7 +1938,7 @@
         <v>125</v>
       </c>
       <c r="G32">
-        <f>D32*4</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="I32" t="s">
@@ -1963,7 +1963,7 @@
         <v>112</v>
       </c>
       <c r="G33">
-        <f>D33*4</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="I33" t="s">
@@ -1990,7 +1990,7 @@
         <v>111</v>
       </c>
       <c r="G34">
-        <f>D34*4</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="I34" t="s">
@@ -2015,7 +2015,7 @@
         <v>97</v>
       </c>
       <c r="G35">
-        <f>D35*4</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="I35">
@@ -2040,7 +2040,7 @@
         <v>89</v>
       </c>
       <c r="G36">
-        <f>D36*4</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="H36" s="14"/>

--- a/zakupy.xlsx
+++ b/zakupy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\piate\Documents\GitHub\Universal_charger\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D58D7BF-E234-428E-BF9B-6BFEBB464778}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C854324-828C-441F-B504-8F081F452027}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2477" yWindow="1817" windowWidth="16372" windowHeight="9960" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="wszystko" sheetId="3" r:id="rId1"/>
@@ -1122,7 +1122,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
@@ -2609,8 +2609,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:J19"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>

--- a/zakupy.xlsx
+++ b/zakupy.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\piate\Documents\GitHub\Universal_charger\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\btlf\OneDrive\Documents\GitHub\Universal_charger\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C854324-828C-441F-B504-8F081F452027}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F676E6FC-6452-46B1-9DA5-31544663BDB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2477" yWindow="1817" windowWidth="16372" windowHeight="9960" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="wszystko" sheetId="3" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="164">
   <si>
     <t>symbol</t>
   </si>
@@ -523,6 +523,15 @@
   </si>
   <si>
     <t>SRN8040_8x8.15mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mux </t>
+  </si>
+  <si>
+    <t>CD74HC4051M</t>
+  </si>
+  <si>
+    <t>SO16</t>
   </si>
 </sst>
 </file>
@@ -675,15 +684,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>10886</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>658586</xdr:colOff>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>39461</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>5355157</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:colOff>5326582</xdr:colOff>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>96872</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -707,8 +716,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10316936" y="6554561"/>
-          <a:ext cx="5344271" cy="1867161"/>
+          <a:off x="10497911" y="8040461"/>
+          <a:ext cx="5344271" cy="1962411"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1122,23 +1131,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="19.765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.28515625" customWidth="1"/>
     <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.4609375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.3046875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.23046875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.07421875" customWidth="1"/>
-    <col min="10" max="10" width="123.53515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.140625" customWidth="1"/>
+    <col min="10" max="10" width="123.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -1161,7 +1170,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1178,7 +1187,7 @@
         <v>7</v>
       </c>
       <c r="G2">
-        <f t="shared" ref="G2:G36" si="0">D2*4</f>
+        <f t="shared" ref="G2:G38" si="0">D2*4</f>
         <v>24</v>
       </c>
       <c r="I2" s="13" t="s">
@@ -1188,7 +1197,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1216,7 +1225,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1243,7 +1252,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1268,7 +1277,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1279,21 +1288,21 @@
         <v>27</v>
       </c>
       <c r="D6">
-        <f>12+3+1+4</f>
-        <v>20</v>
+        <f>12+3+1+4+4</f>
+        <v>24</v>
       </c>
       <c r="F6" t="s">
         <v>29</v>
       </c>
       <c r="G6">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="I6" s="13">
         <v>805</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1304,21 +1313,21 @@
         <v>30</v>
       </c>
       <c r="D7">
-        <f>6+8+5</f>
-        <v>19</v>
+        <f>6+8+5+3</f>
+        <v>22</v>
       </c>
       <c r="F7" t="s">
         <v>32</v>
       </c>
       <c r="G7">
         <f t="shared" si="0"/>
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="I7" s="13">
         <v>805</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1343,7 +1352,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1367,7 +1376,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1391,7 +1400,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1415,7 +1424,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1426,21 +1435,21 @@
         <v>47</v>
       </c>
       <c r="D12">
-        <f>6+4+4+2</f>
-        <v>16</v>
+        <f>6+4+4+2+2</f>
+        <v>18</v>
       </c>
       <c r="F12" t="s">
         <v>48</v>
       </c>
       <c r="G12">
         <f t="shared" si="0"/>
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="I12" s="13">
         <v>805</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1465,7 +1474,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1492,7 +1501,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1519,7 +1528,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1544,7 +1553,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1570,7 +1579,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1597,7 +1606,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1624,7 +1633,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1649,7 +1658,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1677,7 +1686,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1702,7 +1711,7 @@
       </c>
       <c r="J22" s="1"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1726,7 +1735,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1750,7 +1759,7 @@
         <v>1206</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1774,7 +1783,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1801,7 +1810,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1825,7 +1834,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1849,7 +1858,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1873,7 +1882,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1897,7 +1906,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1921,7 +1930,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1946,7 +1955,7 @@
       </c>
       <c r="J32" s="1"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1973,7 +1982,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1998,7 +2007,7 @@
       </c>
       <c r="J34" s="1"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2009,21 +2018,22 @@
         <v>97</v>
       </c>
       <c r="D35">
-        <v>6</v>
+        <f>6+4</f>
+        <v>10</v>
       </c>
       <c r="F35" t="s">
         <v>97</v>
       </c>
       <c r="G35">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="I35">
         <v>805</v>
       </c>
       <c r="J35" s="1"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2051,28 +2061,47 @@
         <v>94</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="B38" t="s">
+        <v>161</v>
+      </c>
+      <c r="C38" t="s">
+        <v>162</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="F38" t="s">
+        <v>162</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="I38" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="J40" s="11"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2109,20 +2138,20 @@
       <selection activeCell="J2" sqref="J2:J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.15234375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.69140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.53515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.3828125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.69140625" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="17.53515625" customWidth="1"/>
-    <col min="7" max="7" width="6.53515625" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="22.15234375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="123.53515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" customWidth="1"/>
+    <col min="7" max="7" width="6.5703125" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="123.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -2154,7 +2183,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2187,7 +2216,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2220,7 +2249,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2253,7 +2282,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2281,7 +2310,7 @@
       </c>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2309,7 +2338,7 @@
       </c>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2337,7 +2366,7 @@
       </c>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2365,7 +2394,7 @@
       </c>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2393,7 +2422,7 @@
       </c>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2421,7 +2450,7 @@
       </c>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2449,7 +2478,7 @@
       </c>
       <c r="J11" s="1"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2480,115 +2509,115 @@
       </c>
       <c r="J12" s="1"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="J13" s="1"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="J14" s="1"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="J15" s="1"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="J16" s="1"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="J17" s="1"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="J18" s="1"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="J19" s="1"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="J20" s="1"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="J21" s="1"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="J22" s="1"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="J23" s="1"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="J24" s="1"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="J25" s="1"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="J26" s="1"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="J27" s="1"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="J28" s="1"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="J29" s="1"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="J30" s="1"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2609,22 +2638,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.53515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="17.15234375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" customWidth="1"/>
+    <col min="3" max="4" width="17.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.15234375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.3046875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.3046875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="76.69140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="76.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -2656,7 +2685,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2689,7 +2718,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2722,7 +2751,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2752,7 +2781,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2782,7 +2811,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2812,7 +2841,7 @@
         <v>1206</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2839,7 +2868,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2866,7 +2895,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2893,7 +2922,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2923,7 +2952,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2950,7 +2979,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2977,7 +3006,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3007,7 +3036,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3037,7 +3066,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3067,7 +3096,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3076,7 +3105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3085,7 +3114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -3094,7 +3123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -3124,62 +3153,62 @@
         <v>86</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -3204,22 +3233,22 @@
       <selection activeCell="B2" sqref="B2:J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="20" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="19.84375" customWidth="1"/>
-    <col min="5" max="5" width="19.15234375" customWidth="1"/>
-    <col min="6" max="6" width="18.3828125" customWidth="1"/>
-    <col min="7" max="7" width="18.3046875" customWidth="1"/>
-    <col min="8" max="8" width="59.3046875" customWidth="1"/>
-    <col min="9" max="9" width="10.15234375" customWidth="1"/>
-    <col min="10" max="10" width="16.3046875" customWidth="1"/>
-    <col min="11" max="11" width="20.84375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="27.15234375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" customWidth="1"/>
+    <col min="5" max="5" width="19.140625" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" customWidth="1"/>
+    <col min="7" max="7" width="18.28515625" customWidth="1"/>
+    <col min="8" max="8" width="59.28515625" customWidth="1"/>
+    <col min="9" max="9" width="10.140625" customWidth="1"/>
+    <col min="10" max="10" width="16.28515625" customWidth="1"/>
+    <col min="11" max="11" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="27.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -3251,7 +3280,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>88</v>
       </c>
@@ -3281,7 +3310,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>51</v>
       </c>
@@ -3311,7 +3340,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
         <v>124</v>
       </c>
@@ -3338,7 +3367,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
         <v>119</v>
       </c>
@@ -3365,7 +3394,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>90</v>
       </c>
@@ -3395,7 +3424,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>91</v>
       </c>
@@ -3419,7 +3448,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>92</v>
       </c>
@@ -3443,7 +3472,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B9" s="9" t="s">
         <v>93</v>
       </c>
@@ -3477,7 +3506,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>99</v>
       </c>
@@ -3501,7 +3530,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>100</v>
       </c>
@@ -3525,7 +3554,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>101</v>
       </c>
@@ -3549,7 +3578,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>102</v>
       </c>
@@ -3573,7 +3602,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>103</v>
       </c>
@@ -3597,7 +3626,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>104</v>
       </c>
@@ -3621,7 +3650,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>105</v>
       </c>
@@ -3664,9 +3693,9 @@
       <selection activeCell="B2" sqref="B2:J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -3698,7 +3727,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -3728,7 +3757,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -3757,7 +3786,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>3</v>
       </c>
@@ -3786,7 +3815,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>4</v>
       </c>
@@ -3812,7 +3841,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>5</v>
       </c>
@@ -3838,7 +3867,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3867,7 +3896,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3896,7 +3925,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3922,7 +3951,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3948,27 +3977,27 @@
         <v>153</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>

--- a/zakupy.xlsx
+++ b/zakupy.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\btlf\OneDrive\Documents\GitHub\Universal_charger\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\piate\Documents\GitHub\Universal_charger\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F676E6FC-6452-46B1-9DA5-31544663BDB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECE59A7C-A29E-4E69-B839-FA3C1D0E978F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="wszystko" sheetId="3" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="167">
   <si>
     <t>symbol</t>
   </si>
@@ -532,6 +532,15 @@
   </si>
   <si>
     <t>SO16</t>
+  </si>
+  <si>
+    <t>r10 om</t>
+  </si>
+  <si>
+    <t>0679L9100-01</t>
+  </si>
+  <si>
+    <t>MCP6004-E/SL</t>
   </si>
 </sst>
 </file>
@@ -691,7 +700,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>5326582</xdr:colOff>
+      <xdr:colOff>5326586</xdr:colOff>
       <xdr:row>52</xdr:row>
       <xdr:rowOff>96872</xdr:rowOff>
     </xdr:to>
@@ -1129,25 +1138,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J41"/>
+  <dimension ref="A1:J44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView tabSelected="1" zoomScale="64" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="32.28515625" customWidth="1"/>
+    <col min="2" max="2" width="32.3046875" customWidth="1"/>
     <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.3828125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.140625" customWidth="1"/>
-    <col min="10" max="10" width="123.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.3046875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.3046875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.15234375" customWidth="1"/>
+    <col min="10" max="10" width="123.53515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -1170,7 +1179,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1183,12 +1192,12 @@
       <c r="D2">
         <v>6</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="4" t="s">
         <v>7</v>
       </c>
       <c r="G2">
-        <f t="shared" ref="G2:G38" si="0">D2*4</f>
-        <v>24</v>
+        <f>D2*2</f>
+        <v>12</v>
       </c>
       <c r="I2" s="13" t="s">
         <v>15</v>
@@ -1197,7 +1206,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1211,12 +1220,12 @@
         <f>6+1+1</f>
         <v>8</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="4" t="s">
         <v>11</v>
       </c>
       <c r="G3">
-        <f t="shared" si="0"/>
-        <v>32</v>
+        <f t="shared" ref="G3:G38" si="0">D3*2</f>
+        <v>16</v>
       </c>
       <c r="I3" s="13" t="s">
         <v>14</v>
@@ -1225,7 +1234,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1238,12 +1247,12 @@
       <c r="D4">
         <v>6</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="4" t="s">
         <v>17</v>
       </c>
       <c r="G4">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I4" s="13" t="s">
         <v>19</v>
@@ -1252,7 +1261,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1266,18 +1275,18 @@
         <f>12+2</f>
         <v>14</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="4" t="s">
         <v>24</v>
       </c>
       <c r="G5">
         <f t="shared" si="0"/>
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="I5" s="13">
         <v>805</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1291,18 +1300,18 @@
         <f>12+3+1+4+4</f>
         <v>24</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="4" t="s">
         <v>29</v>
       </c>
       <c r="G6">
         <f t="shared" si="0"/>
-        <v>96</v>
+        <v>48</v>
       </c>
       <c r="I6" s="13">
         <v>805</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1313,21 +1322,21 @@
         <v>30</v>
       </c>
       <c r="D7">
-        <f>6+8+5+3</f>
-        <v>22</v>
-      </c>
-      <c r="F7" t="s">
+        <f>6+8+5+3+1</f>
+        <v>23</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>32</v>
       </c>
       <c r="G7">
         <f t="shared" si="0"/>
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="I7" s="13">
         <v>805</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1341,18 +1350,18 @@
         <f>6+1+1</f>
         <v>8</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="4" t="s">
         <v>35</v>
       </c>
       <c r="G8">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="I8" s="13">
         <v>805</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1370,13 +1379,13 @@
       </c>
       <c r="G9">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I9" s="13">
         <v>805</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1394,13 +1403,13 @@
       </c>
       <c r="G10">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I10" s="13">
         <v>805</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1418,13 +1427,13 @@
       </c>
       <c r="G11">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I11" s="13">
         <v>805</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1438,43 +1447,25 @@
         <f>6+4+4+2+2</f>
         <v>18</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="4" t="s">
         <v>48</v>
       </c>
       <c r="G12">
         <f t="shared" si="0"/>
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="I12" s="13">
         <v>805</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
-        <v>80</v>
-      </c>
-      <c r="C13" t="s">
-        <v>84</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="F13" t="s">
-        <v>84</v>
-      </c>
-      <c r="G13">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
       <c r="I13" s="13"/>
-      <c r="J13" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J13" s="1"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1487,12 +1478,12 @@
       <c r="D14">
         <v>1</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="4" t="s">
         <v>128</v>
       </c>
       <c r="G14">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I14" s="13" t="s">
         <v>95</v>
@@ -1501,7 +1492,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1512,9 +1503,9 @@
         <v>131</v>
       </c>
       <c r="D15">
-        <v>1</v>
-      </c>
-      <c r="F15" t="s">
+        <v>2</v>
+      </c>
+      <c r="F15" s="4" t="s">
         <v>131</v>
       </c>
       <c r="G15">
@@ -1528,7 +1519,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1541,19 +1532,19 @@
       <c r="D16">
         <v>1</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="4" t="s">
         <v>135</v>
       </c>
       <c r="G16">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I16" s="13"/>
       <c r="J16" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1564,22 +1555,21 @@
         <v>138</v>
       </c>
       <c r="D17">
-        <f>2+4</f>
+        <v>3</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="0"/>
         <v>6</v>
-      </c>
-      <c r="F17" t="s">
-        <v>138</v>
-      </c>
-      <c r="G17">
-        <f t="shared" si="0"/>
-        <v>24</v>
       </c>
       <c r="I17" s="13"/>
       <c r="J17" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1592,12 +1582,12 @@
       <c r="D18">
         <v>1</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" s="4" t="s">
         <v>141</v>
       </c>
       <c r="G18">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I18" s="13" t="s">
         <v>142</v>
@@ -1606,7 +1596,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1619,12 +1609,12 @@
       <c r="D19">
         <v>1</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" s="4" t="s">
         <v>145</v>
       </c>
       <c r="G19">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I19" s="13" t="s">
         <v>146</v>
@@ -1633,7 +1623,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1646,19 +1636,19 @@
       <c r="D20">
         <v>2</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" s="4" t="s">
         <v>152</v>
       </c>
       <c r="G20">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I20" s="13"/>
       <c r="J20" s="1" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1669,15 +1659,15 @@
         <v>52</v>
       </c>
       <c r="D21">
-        <f>4+1+5</f>
-        <v>10</v>
-      </c>
-      <c r="F21" t="s">
+        <f>2</f>
+        <v>2</v>
+      </c>
+      <c r="F21" s="4" t="s">
         <v>52</v>
       </c>
       <c r="G21">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="I21" s="13" t="s">
         <v>54</v>
@@ -1686,7 +1676,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1699,19 +1689,19 @@
       <c r="D22">
         <v>1</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" s="4" t="s">
         <v>59</v>
       </c>
       <c r="G22">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I22" s="13" t="s">
         <v>19</v>
       </c>
       <c r="J22" s="1"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1724,18 +1714,18 @@
       <c r="D23">
         <v>2</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23" s="4" t="s">
         <v>63</v>
       </c>
       <c r="G23">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I23" s="13" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1748,18 +1738,18 @@
       <c r="D24">
         <v>2</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F24" s="4" t="s">
         <v>64</v>
       </c>
       <c r="G24">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I24" s="13">
         <v>1206</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1772,18 +1762,18 @@
       <c r="D25">
         <v>6</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F25" s="4" t="s">
         <v>35</v>
       </c>
       <c r="G25">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I25" s="13">
         <v>805</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1796,12 +1786,12 @@
       <c r="D26">
         <v>1</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F26" s="4" t="s">
         <v>69</v>
       </c>
       <c r="G26">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I26" s="13" t="s">
         <v>15</v>
@@ -1810,7 +1800,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1823,18 +1813,18 @@
       <c r="D27">
         <v>2</v>
       </c>
-      <c r="F27" s="3" t="s">
+      <c r="F27" s="5" t="s">
         <v>71</v>
       </c>
       <c r="G27">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I27" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1852,13 +1842,13 @@
       </c>
       <c r="G28">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I28">
         <v>805</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1871,18 +1861,18 @@
       <c r="D29">
         <v>1</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F29" s="4" t="s">
         <v>75</v>
       </c>
       <c r="G29">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I29">
         <v>805</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1893,9 +1883,9 @@
         <v>81</v>
       </c>
       <c r="D30">
-        <v>1</v>
-      </c>
-      <c r="F30" t="s">
+        <v>2</v>
+      </c>
+      <c r="F30" s="4" t="s">
         <v>81</v>
       </c>
       <c r="G30">
@@ -1906,31 +1896,13 @@
         <v>85</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" t="s">
-        <v>80</v>
-      </c>
-      <c r="C31" t="s">
-        <v>84</v>
-      </c>
-      <c r="D31">
-        <v>1</v>
-      </c>
-      <c r="F31" t="s">
-        <v>84</v>
-      </c>
-      <c r="G31">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J31" s="1"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1943,19 +1915,19 @@
       <c r="D32">
         <v>2</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F32" s="4" t="s">
         <v>125</v>
       </c>
       <c r="G32">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I32" t="s">
         <v>160</v>
       </c>
       <c r="J32" s="1"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1968,12 +1940,12 @@
       <c r="D33">
         <v>2</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F33" s="4" t="s">
         <v>112</v>
       </c>
       <c r="G33">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I33" t="s">
         <v>116</v>
@@ -1982,7 +1954,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1995,19 +1967,19 @@
       <c r="D34">
         <v>3</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F34" s="4" t="s">
         <v>111</v>
       </c>
       <c r="G34">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="I34" t="s">
         <v>113</v>
       </c>
       <c r="J34" s="1"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2021,112 +1993,141 @@
         <f>6+4</f>
         <v>10</v>
       </c>
-      <c r="F35" t="s">
+      <c r="F35" s="4" t="s">
         <v>97</v>
       </c>
       <c r="G35">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="I35">
         <v>805</v>
       </c>
       <c r="J35" s="1"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>35</v>
-      </c>
-      <c r="B36" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="C36" s="14" t="s">
-        <v>87</v>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="C36" t="s">
+        <v>162</v>
       </c>
       <c r="D36">
-        <v>2</v>
-      </c>
-      <c r="F36" s="14" t="s">
-        <v>89</v>
+        <v>1</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>162</v>
       </c>
       <c r="G36">
         <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="H36" s="14"/>
-      <c r="I36" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="J36" s="15" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="I36" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>36</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>161</v>
+      </c>
+      <c r="C37" t="s">
+        <v>166</v>
+      </c>
+      <c r="D37">
+        <v>2</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>37</v>
       </c>
-      <c r="B38" t="s">
-        <v>161</v>
-      </c>
       <c r="C38" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D38">
-        <v>1</v>
-      </c>
-      <c r="F38" t="s">
-        <v>162</v>
+        <v>2</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>165</v>
       </c>
       <c r="G38">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="I38" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>39</v>
       </c>
+      <c r="B40" t="s">
+        <v>164</v>
+      </c>
       <c r="J40" s="11"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>40</v>
       </c>
     </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A44">
+        <v>35</v>
+      </c>
+      <c r="B44" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="C44" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="D44">
+        <v>2</v>
+      </c>
+      <c r="F44" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="G44">
+        <f>D44*4</f>
+        <v>8</v>
+      </c>
+      <c r="H44" s="14"/>
+      <c r="I44" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="J44" s="15" t="s">
+        <v>94</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="J13" r:id="rId1" xr:uid="{3C8EA06C-C45A-4C3C-9CD0-70B7BE2B79DA}"/>
-    <hyperlink ref="J14" r:id="rId2" xr:uid="{C50DAC48-9521-4074-AA48-8C2DA5C1DF04}"/>
-    <hyperlink ref="J15" r:id="rId3" xr:uid="{37601E31-38A3-4CF9-BA10-C3FE6E67E024}"/>
-    <hyperlink ref="J16" r:id="rId4" xr:uid="{5065B9AB-7685-49E0-B096-D92A623881D7}"/>
-    <hyperlink ref="J18" r:id="rId5" xr:uid="{C4B1ECDB-B72D-4B88-829A-643C74638A90}"/>
-    <hyperlink ref="J17" r:id="rId6" xr:uid="{7EF59438-E8CC-4476-AB66-813EE9282645}"/>
-    <hyperlink ref="J20" r:id="rId7" xr:uid="{2CA6A8DE-8A0E-414B-BB17-B1765FBF1393}"/>
-    <hyperlink ref="J19" r:id="rId8" xr:uid="{DF6195E2-AF52-4A8C-91F2-7EE53BFCC9F5}"/>
-    <hyperlink ref="J2" r:id="rId9" xr:uid="{B95FDA38-E095-42F9-BFC7-2CF47A9DF44F}"/>
-    <hyperlink ref="J3" r:id="rId10" xr:uid="{57A76EF5-9D07-4089-B3D3-B713AD100EC0}"/>
-    <hyperlink ref="J4" r:id="rId11" xr:uid="{AACAD524-006A-4BE6-8563-AE0E2657E0C4}"/>
-    <hyperlink ref="J21" r:id="rId12" xr:uid="{EA631A13-B2FC-45AD-952F-943CC5F23D72}"/>
-    <hyperlink ref="J26" r:id="rId13" xr:uid="{C66C0BB3-D12B-484A-A704-EA073233BEDA}"/>
-    <hyperlink ref="J31" r:id="rId14" xr:uid="{6F70F565-2086-4836-AAB3-DB15864F5856}"/>
-    <hyperlink ref="J36" r:id="rId15" xr:uid="{5A88BB9F-53F8-4D02-B9C7-078341C77496}"/>
-    <hyperlink ref="J33" r:id="rId16" xr:uid="{92B6920F-2AA7-4612-832A-2E9CD709B1EC}"/>
+    <hyperlink ref="J14" r:id="rId1" xr:uid="{C50DAC48-9521-4074-AA48-8C2DA5C1DF04}"/>
+    <hyperlink ref="J15" r:id="rId2" xr:uid="{37601E31-38A3-4CF9-BA10-C3FE6E67E024}"/>
+    <hyperlink ref="J16" r:id="rId3" xr:uid="{5065B9AB-7685-49E0-B096-D92A623881D7}"/>
+    <hyperlink ref="J18" r:id="rId4" xr:uid="{C4B1ECDB-B72D-4B88-829A-643C74638A90}"/>
+    <hyperlink ref="J17" r:id="rId5" xr:uid="{7EF59438-E8CC-4476-AB66-813EE9282645}"/>
+    <hyperlink ref="J20" r:id="rId6" xr:uid="{2CA6A8DE-8A0E-414B-BB17-B1765FBF1393}"/>
+    <hyperlink ref="J19" r:id="rId7" xr:uid="{DF6195E2-AF52-4A8C-91F2-7EE53BFCC9F5}"/>
+    <hyperlink ref="J2" r:id="rId8" xr:uid="{B95FDA38-E095-42F9-BFC7-2CF47A9DF44F}"/>
+    <hyperlink ref="J3" r:id="rId9" xr:uid="{57A76EF5-9D07-4089-B3D3-B713AD100EC0}"/>
+    <hyperlink ref="J4" r:id="rId10" xr:uid="{AACAD524-006A-4BE6-8563-AE0E2657E0C4}"/>
+    <hyperlink ref="J21" r:id="rId11" xr:uid="{EA631A13-B2FC-45AD-952F-943CC5F23D72}"/>
+    <hyperlink ref="J26" r:id="rId12" xr:uid="{C66C0BB3-D12B-484A-A704-EA073233BEDA}"/>
+    <hyperlink ref="J44" r:id="rId13" xr:uid="{5A88BB9F-53F8-4D02-B9C7-078341C77496}"/>
+    <hyperlink ref="J33" r:id="rId14" xr:uid="{92B6920F-2AA7-4612-832A-2E9CD709B1EC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId17"/>
+  <drawing r:id="rId15"/>
 </worksheet>
 </file>
 
@@ -2138,20 +2139,20 @@
       <selection activeCell="J2" sqref="J2:J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="3.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5703125" customWidth="1"/>
-    <col min="7" max="7" width="6.5703125" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="123.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.15234375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.69140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.53515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.3828125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.69140625" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="17.53515625" customWidth="1"/>
+    <col min="7" max="7" width="6.53515625" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="22.15234375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="123.53515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -2183,7 +2184,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2216,7 +2217,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2249,7 +2250,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2282,7 +2283,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2310,7 +2311,7 @@
       </c>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2338,7 +2339,7 @@
       </c>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2366,7 +2367,7 @@
       </c>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2394,7 +2395,7 @@
       </c>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2422,7 +2423,7 @@
       </c>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2450,7 +2451,7 @@
       </c>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2478,7 +2479,7 @@
       </c>
       <c r="J11" s="1"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2509,115 +2510,115 @@
       </c>
       <c r="J12" s="1"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="J13" s="1"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="J14" s="1"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="J15" s="1"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="J16" s="1"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="J17" s="1"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="J18" s="1"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="J19" s="1"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="J20" s="1"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="J21" s="1"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="J22" s="1"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="J23" s="1"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="J24" s="1"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="J25" s="1"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="J26" s="1"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="J27" s="1"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="J28" s="1"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="J29" s="1"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="J30" s="1"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2642,18 +2643,18 @@
       <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="23.5703125" customWidth="1"/>
-    <col min="3" max="4" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.53515625" customWidth="1"/>
+    <col min="3" max="4" width="17.15234375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="76.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.15234375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.3046875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.3046875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="76.69140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -2685,7 +2686,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2718,7 +2719,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2751,7 +2752,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2781,7 +2782,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2811,7 +2812,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2841,7 +2842,7 @@
         <v>1206</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2868,7 +2869,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2895,7 +2896,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2922,7 +2923,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2952,7 +2953,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2979,7 +2980,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3006,7 +3007,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3036,7 +3037,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3066,7 +3067,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3096,7 +3097,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3105,7 +3106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3114,7 +3115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>17</v>
       </c>
@@ -3123,7 +3124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>18</v>
       </c>
@@ -3153,62 +3154,62 @@
         <v>86</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>30</v>
       </c>
@@ -3233,22 +3234,22 @@
       <selection activeCell="B2" sqref="B2:J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="20" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" customWidth="1"/>
-    <col min="5" max="5" width="19.140625" customWidth="1"/>
-    <col min="6" max="6" width="18.42578125" customWidth="1"/>
-    <col min="7" max="7" width="18.28515625" customWidth="1"/>
-    <col min="8" max="8" width="59.28515625" customWidth="1"/>
-    <col min="9" max="9" width="10.140625" customWidth="1"/>
-    <col min="10" max="10" width="16.28515625" customWidth="1"/>
-    <col min="11" max="11" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.84375" customWidth="1"/>
+    <col min="5" max="5" width="19.15234375" customWidth="1"/>
+    <col min="6" max="6" width="18.3828125" customWidth="1"/>
+    <col min="7" max="7" width="18.3046875" customWidth="1"/>
+    <col min="8" max="8" width="59.3046875" customWidth="1"/>
+    <col min="9" max="9" width="10.15234375" customWidth="1"/>
+    <col min="10" max="10" width="16.3046875" customWidth="1"/>
+    <col min="11" max="11" width="20.84375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="27.15234375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -3280,7 +3281,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
         <v>88</v>
       </c>
@@ -3310,7 +3311,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
         <v>51</v>
       </c>
@@ -3340,7 +3341,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B4" s="4" t="s">
         <v>124</v>
       </c>
@@ -3367,7 +3368,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B5" s="4" t="s">
         <v>119</v>
       </c>
@@ -3394,7 +3395,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B6" t="s">
         <v>90</v>
       </c>
@@ -3424,7 +3425,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B7" t="s">
         <v>91</v>
       </c>
@@ -3448,7 +3449,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B8" t="s">
         <v>92</v>
       </c>
@@ -3472,7 +3473,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B9" s="9" t="s">
         <v>93</v>
       </c>
@@ -3506,7 +3507,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B10" t="s">
         <v>99</v>
       </c>
@@ -3530,7 +3531,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B11" t="s">
         <v>100</v>
       </c>
@@ -3554,7 +3555,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B12" t="s">
         <v>101</v>
       </c>
@@ -3578,7 +3579,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B13" t="s">
         <v>102</v>
       </c>
@@ -3602,7 +3603,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B14" t="s">
         <v>103</v>
       </c>
@@ -3626,7 +3627,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B15" t="s">
         <v>104</v>
       </c>
@@ -3650,7 +3651,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B16" t="s">
         <v>105</v>
       </c>
@@ -3693,9 +3694,9 @@
       <selection activeCell="B2" sqref="B2:J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -3727,7 +3728,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -3757,7 +3758,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -3786,7 +3787,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4" s="7">
         <v>3</v>
       </c>
@@ -3815,7 +3816,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5" s="7">
         <v>4</v>
       </c>
@@ -3841,7 +3842,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6" s="7">
         <v>5</v>
       </c>
@@ -3867,7 +3868,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3896,7 +3897,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3925,7 +3926,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3951,7 +3952,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3977,27 +3978,27 @@
         <v>153</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>14</v>
       </c>
